--- a/ShipStats.xlsx
+++ b/ShipStats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="103">
   <si>
     <t>w1 Range</t>
   </si>
@@ -162,9 +162,6 @@
     <t>(PA) Gladiator</t>
   </si>
   <si>
-    <t>(PA) Grant</t>
-  </si>
-  <si>
     <t>(PA) Munificent</t>
   </si>
   <si>
@@ -174,27 +171,12 @@
     <t>(PA) Raider</t>
   </si>
   <si>
-    <t>(PA) SentinelConstructor</t>
-  </si>
-  <si>
-    <t>(PA) StarGalleon</t>
-  </si>
-  <si>
     <t>(PA) Venator</t>
   </si>
   <si>
     <t>(PA) Vindicator</t>
   </si>
   <si>
-    <t>(PA) VSDI</t>
-  </si>
-  <si>
-    <t>(EH) Alaria</t>
-  </si>
-  <si>
-    <t>(EH) Ascent</t>
-  </si>
-  <si>
     <t>(EH) Asdoni</t>
   </si>
   <si>
@@ -207,18 +189,6 @@
     <t>(EH) Chaf</t>
   </si>
   <si>
-    <t>(EH) Consen</t>
-  </si>
-  <si>
-    <t>(EH) ConsenConstructor</t>
-  </si>
-  <si>
-    <t>(EH) CT11</t>
-  </si>
-  <si>
-    <t>(EH) FrigateResearch</t>
-  </si>
-  <si>
     <t>(EH) Kariek</t>
   </si>
   <si>
@@ -228,9 +198,6 @@
     <t>(EH) Nuruodo</t>
   </si>
   <si>
-    <t>(EH) Stent</t>
-  </si>
-  <si>
     <t>(EH) Vigilance</t>
   </si>
   <si>
@@ -246,42 +213,12 @@
     <t>(NR) CR90</t>
   </si>
   <si>
-    <t>(NR) CR90Envoy</t>
-  </si>
-  <si>
-    <t>(NR) CT11</t>
-  </si>
-  <si>
     <t>(NR) Dauntless</t>
   </si>
   <si>
-    <t>(NR) EscapePod</t>
-  </si>
-  <si>
-    <t>(NR) Ferret</t>
-  </si>
-  <si>
-    <t>(NR) FrigateResearch</t>
-  </si>
-  <si>
-    <t>(NR) Gallofree</t>
-  </si>
-  <si>
-    <t>(NR) GallofreeConstructor</t>
-  </si>
-  <si>
-    <t>(NR) Hajen</t>
-  </si>
-  <si>
-    <t>(NR) HanSolo</t>
-  </si>
-  <si>
     <t>(NR) HomeOne</t>
   </si>
   <si>
-    <t>(NR) Karrde</t>
-  </si>
-  <si>
     <t>(NR) MC30c</t>
   </si>
   <si>
@@ -294,27 +231,9 @@
     <t>(NR) Proficient</t>
   </si>
   <si>
-    <t>(NR) Quasar</t>
-  </si>
-  <si>
-    <t>(NR) Stargalleon</t>
-  </si>
-  <si>
-    <t>(NR) YT</t>
-  </si>
-  <si>
-    <t>RandomEvent_ShipyardSpawner</t>
-  </si>
-  <si>
-    <t>(IR) AITrap</t>
-  </si>
-  <si>
     <t>(IR) Carrack</t>
   </si>
   <si>
-    <t>(IR) Chimera</t>
-  </si>
-  <si>
     <t>Armour</t>
   </si>
   <si>
@@ -363,9 +282,6 @@
     <t>Weapons</t>
   </si>
   <si>
-    <t>(RE) Garm</t>
-  </si>
-  <si>
     <t>(IR) Katana</t>
   </si>
   <si>
@@ -376,6 +292,42 @@
   </si>
   <si>
     <t>(HC) StarHome</t>
+  </si>
+  <si>
+    <t>"ION"</t>
+  </si>
+  <si>
+    <t>"LASERTECH"</t>
+  </si>
+  <si>
+    <t>"AUTOCANNON"</t>
+  </si>
+  <si>
+    <t>"MISSILE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IR) Dreadnaught </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IR) EscortCarrier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IR) Immobilizer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IR) Lancer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IR) MTC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IR) Strikecruiser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IR) VSDI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IR) VSDII </t>
   </si>
 </sst>
 </file>
@@ -711,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -835,6 +787,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -880,13 +841,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1208,15 +1170,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="1.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
@@ -1229,7 +1191,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
     <col min="13" max="13" width="3.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="6" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="7" style="1" customWidth="1"/>
@@ -1243,12 +1205,13 @@
     <col min="26" max="26" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="9.85546875" style="2" customWidth="1"/>
     <col min="28" max="28" width="11.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="5.85546875" style="1" customWidth="1"/>
-    <col min="31" max="32" width="9.140625" style="1"/>
+    <col min="29" max="29" width="5.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="5.42578125" style="1" customWidth="1"/>
     <col min="33" max="33" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="6.85546875" style="2" customWidth="1"/>
-    <col min="35" max="35" width="9.85546875" customWidth="1"/>
+    <col min="35" max="35" width="7" customWidth="1"/>
     <col min="36" max="36" width="4.7109375" customWidth="1"/>
     <col min="37" max="37" width="7.28515625" customWidth="1"/>
     <col min="38" max="38" width="5.85546875" customWidth="1"/>
@@ -1258,45 +1221,45 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="L1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1421,7 +1384,7 @@
       <c r="M2" s="2">
         <v>2</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="1">
@@ -1504,7 +1467,7 @@
       <c r="M3" s="2">
         <v>3</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="1">
@@ -1608,7 +1571,7 @@
       <c r="M4" s="2">
         <v>3</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="1">
@@ -1712,7 +1675,7 @@
       <c r="M5" s="2">
         <v>2</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="1">
@@ -1795,7 +1758,7 @@
       <c r="M6" s="2">
         <v>3</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O6" s="1">
@@ -1899,7 +1862,7 @@
       <c r="M7" s="2">
         <v>2</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="1">
@@ -1982,7 +1945,7 @@
       <c r="M8" s="2">
         <v>3</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="O8" s="1">
@@ -2086,7 +2049,7 @@
       <c r="M9" s="2">
         <v>3</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="1">
@@ -2190,7 +2153,7 @@
       <c r="M10" s="2">
         <v>3</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="1">
@@ -2294,7 +2257,7 @@
       <c r="M11" s="2">
         <v>3</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O11" s="1">
@@ -2398,7 +2361,7 @@
       <c r="M12" s="2">
         <v>3</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="1">
@@ -2502,7 +2465,7 @@
       <c r="M13" s="2">
         <v>4</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O13" s="1">
@@ -2627,7 +2590,7 @@
       <c r="M14" s="2">
         <v>2</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="1">
@@ -2710,7 +2673,7 @@
       <c r="M15" s="2">
         <v>3</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="1">
@@ -2814,7 +2777,7 @@
       <c r="M16" s="2">
         <v>2</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O16" s="1">
@@ -2897,7 +2860,7 @@
       <c r="M17" s="2">
         <v>2</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O17" s="1">
@@ -2980,7 +2943,7 @@
       <c r="M18" s="2">
         <v>3</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O18" s="1">
@@ -3084,7 +3047,7 @@
       <c r="M19" s="2">
         <v>4</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O19" s="1">
@@ -3209,7 +3172,7 @@
       <c r="M20" s="2">
         <v>3</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O20" s="1">
@@ -3313,7 +3276,7 @@
       <c r="M21" s="2">
         <v>1</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="1">
@@ -3375,7 +3338,7 @@
       <c r="M22" s="2">
         <v>3</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O22" s="1">
@@ -3479,7 +3442,7 @@
       <c r="M23" s="2">
         <v>3</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O23" s="1">
@@ -3583,7 +3546,7 @@
       <c r="M24" s="2">
         <v>3</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O24" s="1">
@@ -3687,7 +3650,7 @@
       <c r="M25" s="2">
         <v>3</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O25" s="1">
@@ -3791,7 +3754,7 @@
       <c r="M26" s="2">
         <v>2</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="O26" s="1">
@@ -3842,13 +3805,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F27">
         <v>20</v>
@@ -3874,7 +3837,7 @@
       <c r="M27" s="2">
         <v>2</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="O27" s="1">
@@ -3919,7 +3882,7 @@
     </row>
     <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
@@ -3957,7 +3920,7 @@
       <c r="M28" s="2">
         <v>1</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O28" s="1">
@@ -3981,7 +3944,7 @@
     </row>
     <row r="29" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -4019,7 +3982,7 @@
       <c r="M29" s="2">
         <v>3</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="1">
@@ -4084,7 +4047,7 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B30" t="s">
@@ -4123,7 +4086,7 @@
       <c r="M30" s="2">
         <v>3</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="O30" s="1">
@@ -4169,7 +4132,7 @@
         <v>9</v>
       </c>
       <c r="AC30" s="1">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="AD30" s="1">
         <v>0</v>
@@ -4188,7 +4151,7 @@
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B31" t="s">
@@ -4227,7 +4190,7 @@
       <c r="M31" s="2">
         <v>1</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="O31" s="1">
@@ -4248,9 +4211,30 @@
       <c r="T31" s="2">
         <v>1</v>
       </c>
+      <c r="U31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V31" s="1">
+        <v>60</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B32" t="s">
@@ -4289,7 +4273,7 @@
       <c r="M32" s="2">
         <v>3</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="O32" s="1">
@@ -4314,7 +4298,7 @@
         <v>8</v>
       </c>
       <c r="V32" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="W32" s="1">
         <v>0</v>
@@ -4335,7 +4319,7 @@
         <v>6</v>
       </c>
       <c r="AC32" s="1">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AD32" s="1">
         <v>0</v>
@@ -4354,7 +4338,7 @@
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B33" t="s">
@@ -4393,7 +4377,7 @@
       <c r="M33" s="2">
         <v>2</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="O33" s="1">
@@ -4437,59 +4421,59 @@
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="H34">
-        <v>7000</v>
+        <v>1885</v>
       </c>
       <c r="I34">
-        <v>7000</v>
+        <v>1885</v>
       </c>
       <c r="J34">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="M34" s="2">
         <v>3</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O34" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P34" s="1">
         <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1">
         <v>10000</v>
@@ -4498,40 +4482,40 @@
         <v>4</v>
       </c>
       <c r="U34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V34" s="1">
+        <v>50</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="1">
-        <v>0</v>
-      </c>
-      <c r="X34" s="1">
-        <v>250</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>250</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AD34" s="1">
         <v>0</v>
       </c>
       <c r="AE34" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="1">
         <v>10000</v>
@@ -4541,32 +4525,32 @@
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="D35">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E35">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G35">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H35">
-        <v>1885</v>
+        <v>3000</v>
       </c>
       <c r="I35">
-        <v>1885</v>
+        <v>3000</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -4580,11 +4564,11 @@
       <c r="M35" s="2">
         <v>3</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O35" s="1">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="P35" s="1">
         <v>0</v>
@@ -4602,10 +4586,10 @@
         <v>4</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V35" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -4623,10 +4607,10 @@
         <v>4</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC35" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD35" s="1">
         <v>0</v>
@@ -4645,340 +4629,424 @@
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36">
-        <v>900</v>
+        <v>210</v>
       </c>
       <c r="D36">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H36">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="I36">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L36">
         <v>0.6</v>
       </c>
       <c r="M36" s="2">
-        <v>3</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="O36" s="1">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="P36" s="1">
         <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R36" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S36" s="1">
         <v>10000</v>
       </c>
       <c r="T36" s="2">
-        <v>4</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V36" s="1">
-        <v>100</v>
-      </c>
-      <c r="W36" s="1">
-        <v>0</v>
-      </c>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>100</v>
-      </c>
-      <c r="AD36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH36" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37">
-        <v>210</v>
+        <v>620</v>
       </c>
       <c r="D37">
+        <v>75</v>
+      </c>
+      <c r="E37">
         <v>40</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H37">
-        <v>600</v>
+        <v>2605</v>
       </c>
       <c r="I37">
-        <v>600</v>
+        <v>2605</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K37">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>0.6</v>
       </c>
       <c r="M37" s="2">
+        <v>3</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O37" s="1">
+        <v>200</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>100</v>
+      </c>
+      <c r="R37" s="1">
+        <v>100</v>
+      </c>
+      <c r="S37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T37" s="2">
+        <v>4</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37" s="1">
+        <v>150</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA37" s="2">
         <v>1</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O37" s="1">
-        <v>15</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>10</v>
-      </c>
-      <c r="R37" s="1">
-        <v>10</v>
-      </c>
-      <c r="S37" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T37" s="2">
-        <v>1</v>
+      <c r="AB37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>13.5</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38">
-        <v>1500</v>
+        <v>450</v>
       </c>
       <c r="D38">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E38">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H38">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <v>0.6</v>
       </c>
       <c r="M38" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O38" s="1">
+        <v>100</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T38" s="2">
+        <v>4</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V38" s="1">
+        <v>96</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>60</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D39">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E39">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <v>700</v>
+      </c>
+      <c r="I39">
+        <v>700</v>
+      </c>
+      <c r="J39">
+        <v>200</v>
+      </c>
+      <c r="K39">
         <v>2</v>
-      </c>
-      <c r="G39">
-        <v>40</v>
-      </c>
-      <c r="H39">
-        <v>1350</v>
-      </c>
-      <c r="I39">
-        <v>1350</v>
-      </c>
-      <c r="J39">
-        <v>350</v>
-      </c>
-      <c r="K39">
-        <v>3</v>
       </c>
       <c r="L39">
         <v>0.6</v>
       </c>
       <c r="M39" s="2">
+        <v>2</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>30</v>
+      </c>
+      <c r="R39" s="1">
+        <v>30</v>
+      </c>
+      <c r="S39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T39" s="2">
         <v>1</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O39" s="1">
-        <v>30</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T39" s="2">
-        <v>5</v>
+      <c r="U39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40">
-        <v>620</v>
+        <v>400</v>
       </c>
       <c r="D40">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
         <v>40</v>
       </c>
-      <c r="F40">
-        <v>6</v>
-      </c>
-      <c r="G40">
-        <v>60</v>
-      </c>
       <c r="H40">
-        <v>2605</v>
+        <v>1900</v>
       </c>
       <c r="I40">
-        <v>2605</v>
+        <v>1900</v>
       </c>
       <c r="J40">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40">
         <v>0.6</v>
       </c>
       <c r="M40" s="2">
-        <v>3</v>
-      </c>
-      <c r="N40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O40" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="P40" s="1">
         <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1">
         <v>10000</v>
       </c>
       <c r="T40" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V40" s="1">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
@@ -4993,57 +5061,36 @@
         <v>10000</v>
       </c>
       <c r="AA40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF40" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG40" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH40" s="2">
-        <v>13.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41">
-        <v>450</v>
+        <v>620</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G41">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H41">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="I41">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -5057,82 +5104,82 @@
       <c r="M41" s="2">
         <v>3</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O41" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="1">
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R41" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S41" s="1">
         <v>10000</v>
       </c>
       <c r="T41" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="V41" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y41" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Z41" s="1">
         <v>10000</v>
       </c>
       <c r="AA41" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC41" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AD41" s="1">
         <v>0</v>
       </c>
       <c r="AE41" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF41" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AG41" s="1">
         <v>10000</v>
       </c>
       <c r="AH41" s="2">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="D42">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E42">
         <v>30</v>
@@ -5141,16 +5188,16 @@
         <v>8</v>
       </c>
       <c r="G42">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H42">
-        <v>3185</v>
+        <v>3500</v>
       </c>
       <c r="I42">
-        <v>3185</v>
+        <v>3500</v>
       </c>
       <c r="J42">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -5159,113 +5206,134 @@
         <v>0.6</v>
       </c>
       <c r="M42" s="2">
-        <v>3</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="O42" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P42" s="1">
         <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R42" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1">
         <v>10000</v>
       </c>
       <c r="T42" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V42" s="1">
+        <v>200</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH42" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ42">
         <v>150</v>
       </c>
-      <c r="W42" s="1">
-        <v>0</v>
-      </c>
-      <c r="X42" s="1">
-        <v>50</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>50</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>150</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>50</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH42" s="2">
-        <v>15</v>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>10000</v>
+      </c>
+      <c r="AO42">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="D43">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E43">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H43">
-        <v>2500</v>
+        <v>1195</v>
       </c>
       <c r="I43">
-        <v>2500</v>
+        <v>1195</v>
       </c>
       <c r="J43">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L43">
         <v>0.6</v>
       </c>
       <c r="M43" s="2">
-        <v>1</v>
-      </c>
-      <c r="N43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O43" s="1">
@@ -5275,10 +5343,10 @@
         <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R43" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="S43" s="1">
         <v>10000</v>
@@ -5286,52 +5354,94 @@
       <c r="T43" s="2">
         <v>5</v>
       </c>
+      <c r="U43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>30</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>42</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44">
+        <v>600</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
         <v>100</v>
       </c>
-      <c r="D44">
-        <v>10</v>
-      </c>
-      <c r="E44">
-        <v>25</v>
-      </c>
       <c r="F44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H44">
-        <v>1150</v>
+        <v>2200</v>
       </c>
       <c r="I44">
-        <v>1250</v>
+        <v>2200</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44">
         <v>0.6</v>
       </c>
       <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="O44" s="1">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="P44" s="1">
         <v>0</v>
@@ -5346,39 +5456,60 @@
         <v>10000</v>
       </c>
       <c r="T44" s="2">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="1">
+        <v>78</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D45">
         <v>50</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H45">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="I45">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="J45">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -5389,8 +5520,8 @@
       <c r="M45" s="2">
         <v>2</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>7</v>
+      <c r="N45" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="1">
         <v>0</v>
@@ -5399,19 +5530,19 @@
         <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="R45" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1">
         <v>10000</v>
       </c>
       <c r="T45" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V45" s="1">
         <v>0</v>
@@ -5420,51 +5551,51 @@
         <v>0</v>
       </c>
       <c r="X45" s="1">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="Y45" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="1">
         <v>10000</v>
       </c>
       <c r="AA45" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="I46">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="J46">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L46">
         <v>0.6</v>
@@ -5472,11 +5603,11 @@
       <c r="M46" s="2">
         <v>2</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>8</v>
+      <c r="N46" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="O46" s="1">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="P46" s="1">
         <v>0</v>
@@ -5491,13 +5622,13 @@
         <v>10000</v>
       </c>
       <c r="T46" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V46" s="1">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="W46" s="1">
         <v>0</v>
@@ -5512,39 +5643,39 @@
         <v>10000</v>
       </c>
       <c r="AA46" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47">
-        <v>620</v>
+        <v>300</v>
       </c>
       <c r="D47">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47">
         <v>55</v>
       </c>
       <c r="H47">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="I47">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -5553,22 +5684,22 @@
         <v>0.6</v>
       </c>
       <c r="M47" s="2">
-        <v>3</v>
-      </c>
-      <c r="N47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O47" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P47" s="1">
         <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S47" s="1">
         <v>10000</v>
@@ -5577,78 +5708,57 @@
         <v>5</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V47" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="W47" s="1">
         <v>0</v>
       </c>
       <c r="X47" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1">
         <v>10000</v>
       </c>
       <c r="AA47" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="1">
-        <v>60</v>
-      </c>
-      <c r="AF47" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG47" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH47" s="2">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48">
-        <v>900</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>3500</v>
+        <v>2610</v>
       </c>
       <c r="I48">
-        <v>3500</v>
+        <v>2048</v>
       </c>
       <c r="J48">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -5657,10 +5767,10 @@
         <v>0.6</v>
       </c>
       <c r="M48" s="2">
-        <v>4</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="O48" s="1">
         <v>100</v>
@@ -5669,126 +5779,84 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="R48" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S48" s="1">
         <v>10000</v>
       </c>
       <c r="T48" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V48" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
       </c>
       <c r="X48" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z48" s="1">
         <v>10000</v>
       </c>
       <c r="AA48" s="2">
-        <v>15</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>320</v>
-      </c>
-      <c r="AD48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH48" s="2">
-        <v>5</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ48">
-        <v>364</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48">
-        <v>10000</v>
-      </c>
-      <c r="AO48">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>62</v>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49">
         <v>10</v>
       </c>
-      <c r="E49">
-        <v>25</v>
-      </c>
       <c r="F49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>1150</v>
+        <v>1890</v>
       </c>
       <c r="I49">
-        <v>1125</v>
+        <v>2360</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L49">
         <v>0.6</v>
       </c>
       <c r="M49" s="2">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O49" s="1">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="P49" s="1">
         <v>0</v>
@@ -5803,53 +5871,158 @@
         <v>10000</v>
       </c>
       <c r="T49" s="2">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="1">
+        <v>440</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>220</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>63</v>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D50">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="E50">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>1500</v>
+        <v>1890</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2360</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L50">
         <v>0.6</v>
       </c>
       <c r="M50" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O50" s="1">
+        <v>180</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T50" s="2">
+        <v>8</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V50" s="1">
+        <v>100</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>35</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>64</v>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -5864,33 +6037,75 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>850</v>
+        <v>4180</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>4180</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L51">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="M51" s="2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O51" s="1">
+        <v>600</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>140</v>
+      </c>
+      <c r="R51" s="1">
+        <v>140</v>
+      </c>
+      <c r="S51" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T51" s="2">
+        <v>2</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V51" s="1">
+        <v>35</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>65</v>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -5928,97 +6143,76 @@
       <c r="M52" s="2">
         <v>3</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O52" s="1">
-        <v>0</v>
-      </c>
-      <c r="P52" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>20</v>
-      </c>
-      <c r="R52" s="1">
-        <v>20</v>
-      </c>
-      <c r="S52" s="1">
-        <v>10000</v>
+      <c r="N52" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O52">
+        <v>100</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>50</v>
+      </c>
+      <c r="R52">
+        <v>50</v>
+      </c>
+      <c r="S52">
+        <v>5000</v>
       </c>
       <c r="T52" s="2">
-        <v>2</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V52" s="1">
-        <v>0</v>
-      </c>
-      <c r="W52" s="1">
-        <v>0</v>
-      </c>
-      <c r="X52" s="1">
-        <v>100</v>
-      </c>
-      <c r="Y52" s="1">
-        <v>100</v>
-      </c>
-      <c r="Z52" s="1">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="U52" t="s">
+        <v>92</v>
+      </c>
+      <c r="V52">
+        <v>150</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>50</v>
+      </c>
+      <c r="Y52">
+        <v>50</v>
+      </c>
+      <c r="Z52">
+        <v>5000</v>
       </c>
       <c r="AA52" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="1">
-        <v>40</v>
-      </c>
-      <c r="AF52" s="1">
-        <v>40</v>
-      </c>
-      <c r="AG52" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH52" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>66</v>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53">
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G53">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H53">
-        <v>1195</v>
+        <v>3420</v>
       </c>
       <c r="I53">
-        <v>1195</v>
+        <v>3400</v>
       </c>
       <c r="J53">
         <v>12</v>
@@ -6030,105 +6224,126 @@
         <v>0.6</v>
       </c>
       <c r="M53" s="2">
-        <v>3</v>
-      </c>
-      <c r="N53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N53" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O53" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P53" s="1">
         <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R53" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S53" s="1">
         <v>10000</v>
       </c>
       <c r="T53" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V53" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="W53" s="1">
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Y53" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Z53" s="1">
         <v>10000</v>
       </c>
       <c r="AA53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AC53" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD53" s="1">
         <v>0</v>
       </c>
       <c r="AE53" s="1">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF53" s="1">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG53" s="1">
         <v>10000</v>
       </c>
       <c r="AH53" s="2">
-        <v>5</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ53">
+        <v>120</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>10000</v>
+      </c>
+      <c r="AO53">
+        <v>14.5</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>67</v>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D54">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E54">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H54">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="I54">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="J54">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L54">
         <v>0.6</v>
@@ -6136,11 +6351,11 @@
       <c r="M54" s="2">
         <v>2</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>8</v>
+      <c r="N54" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="O54" s="1">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="P54" s="1">
         <v>0</v>
@@ -6155,63 +6370,63 @@
         <v>10000</v>
       </c>
       <c r="T54" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V54" s="1">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="W54" s="1">
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y54" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z54" s="1">
         <v>10000</v>
       </c>
       <c r="AA54" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>68</v>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="D55">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H55">
-        <v>2100</v>
+        <v>3290</v>
       </c>
       <c r="I55">
-        <v>2100</v>
+        <v>3260</v>
       </c>
       <c r="J55">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
         <v>0.6</v>
@@ -6219,7 +6434,7 @@
       <c r="M55" s="2">
         <v>2</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O55" s="1">
@@ -6229,19 +6444,19 @@
         <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="R55" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S55" s="1">
         <v>10000</v>
       </c>
       <c r="T55" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V55" s="1">
         <v>0</v>
@@ -6250,21 +6465,21 @@
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="Y55" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z55" s="1">
         <v>10000</v>
       </c>
       <c r="AA55" s="2">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>69</v>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -6285,10 +6500,10 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>7000</v>
+        <v>4180</v>
       </c>
       <c r="I56">
-        <v>7000</v>
+        <v>4180</v>
       </c>
       <c r="J56">
         <v>120</v>
@@ -6300,117 +6515,96 @@
         <v>0.75</v>
       </c>
       <c r="M56" s="2">
-        <v>3</v>
-      </c>
-      <c r="N56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O56" s="1">
+        <v>350</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>40</v>
+      </c>
+      <c r="R56" s="1">
+        <v>40</v>
+      </c>
+      <c r="S56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T56" s="2">
+        <v>2</v>
+      </c>
+      <c r="U56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O56" s="1">
-        <v>200</v>
-      </c>
-      <c r="P56" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>0</v>
-      </c>
-      <c r="R56" s="1">
-        <v>0</v>
-      </c>
-      <c r="S56" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T56" s="2">
+      <c r="V56" s="1">
+        <v>350</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>150</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>150</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA56" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="U56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V56" s="1">
-        <v>190</v>
-      </c>
-      <c r="W56" s="1">
-        <v>0</v>
-      </c>
-      <c r="X56" s="1">
-        <v>130</v>
-      </c>
-      <c r="Y56" s="1">
-        <v>130</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA56" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC56" s="1">
-        <v>200</v>
-      </c>
-      <c r="AD56" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="1">
-        <v>60</v>
-      </c>
-      <c r="AF56" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG56" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH56" s="2">
-        <v>4</v>
-      </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>70</v>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="F57">
         <v>5</v>
       </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
       <c r="G57">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="I57">
-        <v>1100</v>
+        <v>2660</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L57">
         <v>0.6</v>
       </c>
       <c r="M57" s="2">
-        <v>2</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="O57" s="1">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="P57" s="1">
         <v>0</v>
@@ -6425,60 +6619,81 @@
         <v>10000</v>
       </c>
       <c r="T57" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V57" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W57" s="1">
         <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y57" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z57" s="1">
         <v>10000</v>
       </c>
       <c r="AA57" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AB57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>650</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH57" s="2">
+        <v>13.5</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>71</v>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="D58">
+        <v>50</v>
+      </c>
+      <c r="E58">
         <v>30</v>
       </c>
-      <c r="E58">
-        <v>20</v>
-      </c>
       <c r="F58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H58">
-        <v>2700</v>
+        <v>2020</v>
       </c>
       <c r="I58">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J58">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -6487,13 +6702,13 @@
         <v>0.6</v>
       </c>
       <c r="M58" s="2">
-        <v>2</v>
-      </c>
-      <c r="N58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O58" s="1">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="P58" s="1">
         <v>0</v>
@@ -6508,13 +6723,13 @@
         <v>10000</v>
       </c>
       <c r="T58" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V58" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="W58" s="1">
         <v>0</v>
@@ -6529,42 +6744,63 @@
         <v>10000</v>
       </c>
       <c r="AA58" s="2">
-        <v>6.5</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>300</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH58" s="2">
+        <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>114</v>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59">
+        <v>300</v>
+      </c>
+      <c r="D59">
         <v>30</v>
       </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H59">
-        <v>2610</v>
+        <v>1100</v>
       </c>
       <c r="I59">
-        <v>2048</v>
+        <v>1100</v>
       </c>
       <c r="J59">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K59">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L59">
         <v>0.6</v>
@@ -6572,82 +6808,82 @@
       <c r="M59" s="2">
         <v>2</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="N59" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O59" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="P59" s="1">
         <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="R59" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="S59" s="1">
         <v>10000</v>
       </c>
       <c r="T59" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V59" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W59" s="1">
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="1">
         <v>10000</v>
       </c>
       <c r="AA59" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>115</v>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="H60">
-        <v>2610</v>
+        <v>2590</v>
       </c>
       <c r="I60">
-        <v>2048</v>
+        <v>2560</v>
       </c>
       <c r="J60">
         <v>12</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L60">
         <v>0.6</v>
@@ -6655,2268 +6891,831 @@
       <c r="M60" s="2">
         <v>2</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N60" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O60" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="1">
         <v>0</v>
       </c>
       <c r="Q60" s="1">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="R60" s="1">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="S60" s="1">
         <v>10000</v>
       </c>
       <c r="T60" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>6</v>
       </c>
       <c r="V60" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="W60" s="1">
         <v>0</v>
       </c>
       <c r="X60" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Y60" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Z60" s="1">
         <v>10000</v>
       </c>
       <c r="AA60" s="2">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>116</v>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D61">
         <v>50</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H61">
-        <v>1890</v>
+        <v>1200</v>
       </c>
       <c r="I61">
-        <v>2360</v>
+        <v>1200</v>
       </c>
       <c r="J61">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L61">
         <v>0.6</v>
       </c>
       <c r="M61" s="2">
-        <v>3</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="O61" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P61" s="1">
         <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="1">
         <v>10000</v>
       </c>
       <c r="T61" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="V61" s="1">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="W61" s="1">
         <v>0</v>
       </c>
       <c r="X61" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Y61" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Z61" s="1">
         <v>10000</v>
       </c>
       <c r="AA61" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC61" s="1">
-        <v>60</v>
-      </c>
-      <c r="AD61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH61" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>117</v>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="D62">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E62">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H62">
-        <v>1890</v>
+        <v>2610</v>
       </c>
       <c r="I62">
-        <v>2360</v>
+        <v>2648</v>
       </c>
       <c r="J62">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L62">
         <v>0.6</v>
       </c>
       <c r="M62" s="2">
-        <v>3</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="1">
-        <v>120</v>
-      </c>
-      <c r="P62" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>0</v>
-      </c>
-      <c r="R62" s="1">
-        <v>0</v>
-      </c>
-      <c r="S62" s="1">
-        <v>10000</v>
+        <v>2</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O62">
+        <v>100</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>50</v>
+      </c>
+      <c r="R62">
+        <v>50</v>
+      </c>
+      <c r="S62">
+        <v>5000</v>
       </c>
       <c r="T62" s="2">
-        <v>8</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V62" s="1">
-        <v>100</v>
-      </c>
-      <c r="W62" s="1">
-        <v>0</v>
-      </c>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="1">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="U62" t="s">
+        <v>92</v>
+      </c>
+      <c r="V62">
+        <v>150</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>50</v>
+      </c>
+      <c r="Y62">
+        <v>50</v>
+      </c>
+      <c r="Z62">
+        <v>5000</v>
       </c>
       <c r="AA62" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC62" s="1">
-        <v>35</v>
-      </c>
-      <c r="AD62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH62" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>118</v>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>4180</v>
+        <v>900</v>
       </c>
       <c r="I63">
-        <v>4180</v>
+        <v>900</v>
       </c>
       <c r="J63">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L63">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="M63" s="2">
         <v>2</v>
       </c>
-      <c r="N63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O63" s="1">
-        <v>100</v>
-      </c>
-      <c r="P63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>40</v>
-      </c>
-      <c r="R63" s="1">
-        <v>40</v>
-      </c>
-      <c r="S63" s="1">
-        <v>10000</v>
+      <c r="N63" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O63">
+        <v>25</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>5000</v>
       </c>
       <c r="T63" s="2">
-        <v>2</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V63" s="1">
-        <v>35</v>
-      </c>
-      <c r="W63" s="1">
-        <v>0</v>
-      </c>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="1">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="U63" t="s">
+        <v>94</v>
+      </c>
+      <c r="V63">
+        <v>18</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>5500</v>
       </c>
       <c r="AA63" s="2">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>72</v>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D64">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E64">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G64">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H64">
-        <v>2090</v>
+        <v>1337</v>
       </c>
       <c r="I64">
-        <v>3060</v>
+        <v>1500</v>
       </c>
       <c r="J64">
         <v>24</v>
       </c>
       <c r="K64">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L64">
         <v>0.6</v>
       </c>
       <c r="M64" s="2">
-        <v>3</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O64" s="1">
-        <v>0</v>
-      </c>
-      <c r="P64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>20</v>
-      </c>
-      <c r="R64" s="1">
-        <v>20</v>
-      </c>
-      <c r="S64" s="1">
-        <v>10000</v>
+        <v>1</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O64">
+        <v>200</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>5000</v>
       </c>
       <c r="T64" s="2">
-        <v>2</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V64" s="1">
-        <v>0</v>
-      </c>
-      <c r="W64" s="1">
-        <v>0</v>
-      </c>
-      <c r="X64" s="1">
-        <v>120</v>
-      </c>
-      <c r="Y64" s="1">
-        <v>120</v>
-      </c>
-      <c r="Z64" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA64" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE64" s="1">
-        <v>75</v>
-      </c>
-      <c r="AF64" s="1">
-        <v>75</v>
-      </c>
-      <c r="AG64" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH64" s="2">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>73</v>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65">
-        <v>1200</v>
+        <v>210</v>
       </c>
       <c r="D65">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E65">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H65">
-        <v>3420</v>
+        <v>600</v>
       </c>
       <c r="I65">
-        <v>3400</v>
+        <v>600</v>
       </c>
       <c r="J65">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L65">
         <v>0.6</v>
       </c>
       <c r="M65" s="2">
-        <v>4</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O65" s="1">
-        <v>0</v>
-      </c>
-      <c r="P65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>50</v>
-      </c>
-      <c r="R65" s="1">
-        <v>50</v>
-      </c>
-      <c r="S65" s="1">
-        <v>10000</v>
+        <v>1</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>15</v>
+      </c>
+      <c r="R65">
+        <v>15</v>
+      </c>
+      <c r="S65">
+        <v>4000</v>
       </c>
       <c r="T65" s="2">
-        <v>4</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="1">
-        <v>0</v>
-      </c>
-      <c r="X65" s="1">
-        <v>156</v>
-      </c>
-      <c r="Y65" s="1">
-        <v>156</v>
-      </c>
-      <c r="Z65" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA65" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="1">
-        <v>50</v>
-      </c>
-      <c r="AF65" s="1">
-        <v>50</v>
-      </c>
-      <c r="AG65" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH65" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ65">
-        <v>120</v>
-      </c>
-      <c r="AK65">
-        <v>0</v>
-      </c>
-      <c r="AL65">
-        <v>0</v>
-      </c>
-      <c r="AM65">
-        <v>0</v>
-      </c>
-      <c r="AN65">
-        <v>10000</v>
-      </c>
-      <c r="AO65">
-        <v>14.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>74</v>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D66">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G66">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>800</v>
+        <v>1505</v>
       </c>
       <c r="I66">
-        <v>800</v>
+        <v>1505</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K66">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L66">
         <v>0.6</v>
       </c>
       <c r="M66" s="2">
-        <v>2</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O66" s="1">
-        <v>20</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>0</v>
-      </c>
-      <c r="R66" s="1">
-        <v>0</v>
-      </c>
-      <c r="S66" s="1">
-        <v>10000</v>
+        <v>1</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O66">
+        <v>175</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>5000</v>
       </c>
       <c r="T66" s="2">
-        <v>1</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V66" s="1">
-        <v>0</v>
-      </c>
-      <c r="W66" s="1">
-        <v>0</v>
-      </c>
-      <c r="X66" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y66" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z66" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA66" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>75</v>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="D67">
         <v>70</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G67">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>850</v>
+        <v>1600</v>
       </c>
       <c r="I67">
-        <v>400</v>
+        <v>2800</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>0.6</v>
       </c>
       <c r="M67" s="2">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O67">
+        <v>120</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>5000</v>
+      </c>
+      <c r="T67" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U67" t="s">
+        <v>92</v>
+      </c>
+      <c r="V67">
+        <v>210</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>5000</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>76</v>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H68">
-        <v>850</v>
+        <v>3185</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3185</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L68">
         <v>0.6</v>
       </c>
       <c r="M68" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O68">
+        <v>90</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>50</v>
+      </c>
+      <c r="R68">
+        <v>50</v>
+      </c>
+      <c r="S68">
+        <v>5000</v>
+      </c>
+      <c r="T68" s="2">
+        <v>4</v>
+      </c>
+      <c r="U68" t="s">
+        <v>92</v>
+      </c>
+      <c r="V68">
+        <v>90</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>50</v>
+      </c>
+      <c r="Y68">
+        <v>50</v>
+      </c>
+      <c r="Z68">
+        <v>5000</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC68">
+        <v>650</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>50</v>
+      </c>
+      <c r="AF68">
+        <v>50</v>
+      </c>
+      <c r="AG68">
+        <v>5500</v>
+      </c>
+      <c r="AH68" s="2">
+        <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>77</v>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69">
-        <v>950</v>
+        <v>860</v>
       </c>
       <c r="D69">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E69">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F69">
         <v>8</v>
       </c>
       <c r="G69">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H69">
-        <v>3290</v>
+        <v>3185</v>
       </c>
       <c r="I69">
-        <v>3260</v>
+        <v>3185</v>
       </c>
       <c r="J69">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K69">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L69">
         <v>0.6</v>
       </c>
       <c r="M69" s="2">
-        <v>2</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O69" s="1">
-        <v>0</v>
-      </c>
-      <c r="P69" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="1">
+        <v>3</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O69">
         <v>120</v>
       </c>
-      <c r="R69" s="1">
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>30</v>
+      </c>
+      <c r="R69">
+        <v>30</v>
+      </c>
+      <c r="S69">
+        <v>5000</v>
+      </c>
+      <c r="T69" s="2">
+        <v>4</v>
+      </c>
+      <c r="U69" t="s">
+        <v>91</v>
+      </c>
+      <c r="V69">
         <v>120</v>
       </c>
-      <c r="S69" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T69" s="2">
-        <v>2</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V69" s="1">
-        <v>0</v>
-      </c>
-      <c r="W69" s="1">
-        <v>0</v>
-      </c>
-      <c r="X69" s="1">
-        <v>100</v>
-      </c>
-      <c r="Y69" s="1">
-        <v>100</v>
-      </c>
-      <c r="Z69" s="1">
-        <v>10000</v>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>40</v>
+      </c>
+      <c r="Y69">
+        <v>40</v>
+      </c>
+      <c r="Z69">
+        <v>5000</v>
       </c>
       <c r="AA69" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70">
-        <v>100</v>
-      </c>
-      <c r="D70">
-        <v>10</v>
-      </c>
-      <c r="E70">
-        <v>25</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>20</v>
-      </c>
-      <c r="H70">
-        <v>1150</v>
-      </c>
-      <c r="I70">
-        <v>125</v>
-      </c>
-      <c r="J70">
-        <v>5</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0.6</v>
-      </c>
-      <c r="M70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71">
-        <v>100</v>
-      </c>
-      <c r="D71">
-        <v>10</v>
-      </c>
-      <c r="E71">
-        <v>25</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>20</v>
-      </c>
-      <c r="H71">
-        <v>1150</v>
-      </c>
-      <c r="I71">
-        <v>1250</v>
-      </c>
-      <c r="J71">
-        <v>5</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0.6</v>
-      </c>
-      <c r="M71" s="2">
-        <v>1</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O71" s="1">
-        <v>10</v>
-      </c>
-      <c r="P71" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>0</v>
-      </c>
-      <c r="R71" s="1">
-        <v>0</v>
-      </c>
-      <c r="S71" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T71" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72">
-        <v>600</v>
-      </c>
-      <c r="D72">
-        <v>60</v>
-      </c>
-      <c r="E72">
-        <v>30</v>
-      </c>
-      <c r="F72">
-        <v>5</v>
-      </c>
-      <c r="G72">
-        <v>45</v>
-      </c>
-      <c r="H72">
-        <v>2090</v>
-      </c>
-      <c r="I72">
-        <v>3060</v>
-      </c>
-      <c r="J72">
-        <v>24</v>
-      </c>
-      <c r="K72">
-        <v>3.5</v>
-      </c>
-      <c r="L72">
-        <v>0.6</v>
-      </c>
-      <c r="M72" s="2">
-        <v>3</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O72" s="1">
-        <v>0</v>
-      </c>
-      <c r="P72" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>20</v>
-      </c>
-      <c r="R72" s="1">
-        <v>20</v>
-      </c>
-      <c r="S72" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T72" s="2">
-        <v>2</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V72" s="1">
-        <v>0</v>
-      </c>
-      <c r="W72" s="1">
-        <v>0</v>
-      </c>
-      <c r="X72" s="1">
-        <v>100</v>
-      </c>
-      <c r="Y72" s="1">
-        <v>100</v>
-      </c>
-      <c r="Z72" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA72" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE72" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC69">
+        <v>150</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
         <v>40</v>
       </c>
-      <c r="AF72" s="1">
+      <c r="AF69">
         <v>40</v>
       </c>
-      <c r="AG72" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH72" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73">
-        <v>100</v>
-      </c>
-      <c r="D73">
-        <v>10</v>
-      </c>
-      <c r="E73">
-        <v>25</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>20</v>
-      </c>
-      <c r="H73">
-        <v>1150</v>
-      </c>
-      <c r="I73">
-        <v>1125</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0.6</v>
-      </c>
-      <c r="M73" s="2">
-        <v>1</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O73" s="1">
-        <v>10</v>
-      </c>
-      <c r="P73" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>0</v>
-      </c>
-      <c r="R73" s="1">
-        <v>0</v>
-      </c>
-      <c r="S73" s="1">
-        <v>3500</v>
-      </c>
-      <c r="T73" s="2">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74">
-        <v>1500</v>
-      </c>
-      <c r="D74">
-        <v>150</v>
-      </c>
-      <c r="E74">
-        <v>250</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>25</v>
-      </c>
-      <c r="H74">
-        <v>1500</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>3</v>
-      </c>
-      <c r="L74">
-        <v>0.6</v>
-      </c>
-      <c r="M74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75">
-        <v>400</v>
-      </c>
-      <c r="D75">
-        <v>45</v>
-      </c>
-      <c r="E75">
-        <v>80</v>
-      </c>
-      <c r="F75">
-        <v>3</v>
-      </c>
-      <c r="G75">
-        <v>40</v>
-      </c>
-      <c r="H75">
-        <v>1500</v>
-      </c>
-      <c r="I75">
-        <v>1500</v>
-      </c>
-      <c r="J75">
-        <v>350</v>
-      </c>
-      <c r="K75">
-        <v>3</v>
-      </c>
-      <c r="L75">
-        <v>0.6</v>
-      </c>
-      <c r="M75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76">
-        <v>200</v>
-      </c>
-      <c r="D76">
-        <v>25</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>20</v>
-      </c>
-      <c r="H76">
-        <v>800</v>
-      </c>
-      <c r="I76">
-        <v>800</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>3.5</v>
-      </c>
-      <c r="L76">
-        <v>0.6</v>
-      </c>
-      <c r="M76" s="2">
-        <v>2</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O76" s="1">
-        <v>20</v>
-      </c>
-      <c r="P76" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>0</v>
-      </c>
-      <c r="R76" s="1">
-        <v>0</v>
-      </c>
-      <c r="S76" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T76" s="2">
-        <v>1</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V76" s="1">
-        <v>0</v>
-      </c>
-      <c r="W76" s="1">
-        <v>0</v>
-      </c>
-      <c r="X76" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y76" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z76" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>4180</v>
-      </c>
-      <c r="I77">
-        <v>4180</v>
-      </c>
-      <c r="J77">
-        <v>120</v>
-      </c>
-      <c r="K77">
-        <v>5</v>
-      </c>
-      <c r="L77">
-        <v>0.75</v>
-      </c>
-      <c r="M77" s="2">
-        <v>2</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O77" s="1">
-        <v>100</v>
-      </c>
-      <c r="P77" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>40</v>
-      </c>
-      <c r="R77" s="1">
-        <v>40</v>
-      </c>
-      <c r="S77" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T77" s="2">
-        <v>2</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V77" s="1">
-        <v>300</v>
-      </c>
-      <c r="W77" s="1">
-        <v>0</v>
-      </c>
-      <c r="X77" s="1">
-        <v>150</v>
-      </c>
-      <c r="Y77" s="1">
-        <v>150</v>
-      </c>
-      <c r="Z77" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA77" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78">
-        <v>200</v>
-      </c>
-      <c r="D78">
-        <v>25</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>20</v>
-      </c>
-      <c r="H78">
-        <v>800</v>
-      </c>
-      <c r="I78">
-        <v>800</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>3.5</v>
-      </c>
-      <c r="L78">
-        <v>0.6</v>
-      </c>
-      <c r="M78" s="2">
-        <v>2</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O78" s="1">
-        <v>20</v>
-      </c>
-      <c r="P78" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="1">
-        <v>0</v>
-      </c>
-      <c r="R78" s="1">
-        <v>0</v>
-      </c>
-      <c r="S78" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T78" s="2">
-        <v>1</v>
-      </c>
-      <c r="U78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V78" s="1">
-        <v>0</v>
-      </c>
-      <c r="W78" s="1">
-        <v>0</v>
-      </c>
-      <c r="X78" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y78" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z78" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>87</v>
-      </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79">
-        <v>600</v>
-      </c>
-      <c r="D79">
-        <v>70</v>
-      </c>
-      <c r="E79">
-        <v>50</v>
-      </c>
-      <c r="F79">
-        <v>5</v>
-      </c>
-      <c r="G79">
-        <v>40</v>
-      </c>
-      <c r="H79">
-        <v>2600</v>
-      </c>
-      <c r="I79">
-        <v>2660</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>3.5</v>
-      </c>
-      <c r="L79">
-        <v>0.6</v>
-      </c>
-      <c r="M79" s="2">
-        <v>3</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O79" s="1">
-        <v>200</v>
-      </c>
-      <c r="P79" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="1">
-        <v>0</v>
-      </c>
-      <c r="R79" s="1">
-        <v>0</v>
-      </c>
-      <c r="S79" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T79" s="2">
-        <v>3</v>
-      </c>
-      <c r="U79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V79" s="1">
-        <v>0</v>
-      </c>
-      <c r="W79" s="1">
-        <v>0</v>
-      </c>
-      <c r="X79" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y79" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z79" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA79" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC79" s="1">
-        <v>250</v>
-      </c>
-      <c r="AD79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF79" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG79" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH79" s="2">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80">
-        <v>450</v>
-      </c>
-      <c r="D80">
-        <v>50</v>
-      </c>
-      <c r="E80">
-        <v>30</v>
-      </c>
-      <c r="F80">
-        <v>4</v>
-      </c>
-      <c r="G80">
-        <v>40</v>
-      </c>
-      <c r="H80">
-        <v>2020</v>
-      </c>
-      <c r="I80">
-        <v>2800</v>
-      </c>
-      <c r="J80">
-        <v>12</v>
-      </c>
-      <c r="K80">
-        <v>2</v>
-      </c>
-      <c r="L80">
-        <v>0.6</v>
-      </c>
-      <c r="M80" s="2">
-        <v>3</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O80" s="1">
-        <v>90</v>
-      </c>
-      <c r="P80" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="1">
-        <v>0</v>
-      </c>
-      <c r="R80" s="1">
-        <v>0</v>
-      </c>
-      <c r="S80" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T80" s="2">
-        <v>4</v>
-      </c>
-      <c r="U80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V80" s="1">
-        <v>200</v>
-      </c>
-      <c r="W80" s="1">
-        <v>0</v>
-      </c>
-      <c r="X80" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z80" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA80" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AB80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC80" s="1">
-        <v>50</v>
-      </c>
-      <c r="AD80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF80" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG80" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH80" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81">
-        <v>300</v>
-      </c>
-      <c r="D81">
-        <v>30</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81">
-        <v>20</v>
-      </c>
-      <c r="H81">
-        <v>1100</v>
-      </c>
-      <c r="I81">
-        <v>1100</v>
-      </c>
-      <c r="J81">
-        <v>10</v>
-      </c>
-      <c r="K81">
-        <v>3.5</v>
-      </c>
-      <c r="L81">
-        <v>0.6</v>
-      </c>
-      <c r="M81" s="2">
-        <v>2</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O81" s="1">
-        <v>120</v>
-      </c>
-      <c r="P81" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="1">
-        <v>0</v>
-      </c>
-      <c r="R81" s="1">
-        <v>0</v>
-      </c>
-      <c r="S81" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T81" s="2">
-        <v>2</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V81" s="1">
-        <v>40</v>
-      </c>
-      <c r="W81" s="1">
-        <v>0</v>
-      </c>
-      <c r="X81" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA81" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82">
-        <v>1000</v>
-      </c>
-      <c r="D82">
-        <v>50</v>
-      </c>
-      <c r="E82">
-        <v>50</v>
-      </c>
-      <c r="F82">
-        <v>6</v>
-      </c>
-      <c r="G82">
-        <v>65</v>
-      </c>
-      <c r="H82">
-        <v>2590</v>
-      </c>
-      <c r="I82">
-        <v>2560</v>
-      </c>
-      <c r="J82">
-        <v>12</v>
-      </c>
-      <c r="K82">
-        <v>3.5</v>
-      </c>
-      <c r="L82">
-        <v>0.6</v>
-      </c>
-      <c r="M82" s="2">
-        <v>2</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O82" s="1">
-        <v>70</v>
-      </c>
-      <c r="P82" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>20</v>
-      </c>
-      <c r="R82" s="1">
-        <v>20</v>
-      </c>
-      <c r="S82" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T82" s="2">
-        <v>2</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V82" s="1">
-        <v>60</v>
-      </c>
-      <c r="W82" s="1">
-        <v>0</v>
-      </c>
-      <c r="X82" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y82" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z82" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA82" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83">
-        <v>400</v>
-      </c>
-      <c r="D83">
-        <v>40</v>
-      </c>
-      <c r="E83">
-        <v>15</v>
-      </c>
-      <c r="F83">
-        <v>3</v>
-      </c>
-      <c r="G83">
-        <v>30</v>
-      </c>
-      <c r="H83">
-        <v>1400</v>
-      </c>
-      <c r="I83">
-        <v>1400</v>
-      </c>
-      <c r="J83">
-        <v>48</v>
-      </c>
-      <c r="K83">
-        <v>3</v>
-      </c>
-      <c r="L83">
-        <v>0.6</v>
-      </c>
-      <c r="M83" s="2">
-        <v>1</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O83" s="1">
-        <v>40</v>
-      </c>
-      <c r="P83" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="1">
-        <v>0</v>
-      </c>
-      <c r="R83" s="1">
-        <v>0</v>
-      </c>
-      <c r="S83" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84">
-        <v>100</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>30</v>
-      </c>
-      <c r="H84">
-        <v>500</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0.6</v>
-      </c>
-      <c r="M84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85">
-        <v>100</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>30</v>
-      </c>
-      <c r="H85">
-        <v>500</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0.6</v>
-      </c>
-      <c r="M85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86">
-        <v>100</v>
-      </c>
-      <c r="D86">
-        <v>10</v>
-      </c>
-      <c r="E86">
-        <v>25</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>40</v>
-      </c>
-      <c r="H86">
-        <v>1150</v>
-      </c>
-      <c r="I86">
-        <v>1125</v>
-      </c>
-      <c r="J86">
-        <v>5</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0.6</v>
-      </c>
-      <c r="M86" s="2">
-        <v>1</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O86" s="1">
-        <v>21</v>
-      </c>
-      <c r="P86" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="1">
-        <v>0</v>
-      </c>
-      <c r="R86" s="1">
-        <v>0</v>
-      </c>
-      <c r="S86" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T86" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>95</v>
-      </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87">
-        <v>4000000</v>
-      </c>
-      <c r="D87">
-        <v>70</v>
-      </c>
-      <c r="E87">
-        <v>15</v>
-      </c>
-      <c r="F87">
-        <v>500000</v>
-      </c>
-      <c r="G87">
-        <v>40</v>
-      </c>
-      <c r="H87">
-        <v>1600</v>
-      </c>
-      <c r="I87">
-        <v>2800</v>
-      </c>
-      <c r="J87">
-        <v>24</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>0.6</v>
-      </c>
-      <c r="M87" s="2">
-        <v>2</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O87" s="1">
-        <v>120</v>
-      </c>
-      <c r="P87" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="1">
-        <v>0</v>
-      </c>
-      <c r="R87" s="1">
-        <v>0</v>
-      </c>
-      <c r="S87" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T87" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V87" s="1">
-        <v>210</v>
-      </c>
-      <c r="W87" s="1">
-        <v>0</v>
-      </c>
-      <c r="X87" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z87" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA87" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88">
-        <v>200</v>
-      </c>
-      <c r="D88">
-        <v>50</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>2</v>
-      </c>
-      <c r="G88">
-        <v>25</v>
-      </c>
-      <c r="H88">
-        <v>1200</v>
-      </c>
-      <c r="I88">
-        <v>1200</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <v>0.6</v>
-      </c>
-      <c r="M88" s="2">
-        <v>2</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O88" s="1">
-        <v>0</v>
-      </c>
-      <c r="P88" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="1">
-        <v>100</v>
-      </c>
-      <c r="R88" s="1">
-        <v>100</v>
-      </c>
-      <c r="S88" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T88" s="2">
-        <v>4</v>
-      </c>
-      <c r="U88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V88" s="1">
-        <v>0</v>
-      </c>
-      <c r="W88" s="1">
-        <v>0</v>
-      </c>
-      <c r="X88" s="1">
-        <v>33</v>
-      </c>
-      <c r="Y88" s="1">
-        <v>33</v>
-      </c>
-      <c r="Z88" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA88" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>97</v>
-      </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>7000</v>
-      </c>
-      <c r="I89">
-        <v>7000</v>
-      </c>
-      <c r="J89">
-        <v>120</v>
-      </c>
-      <c r="K89">
-        <v>5</v>
-      </c>
-      <c r="L89">
-        <v>0.75</v>
-      </c>
-      <c r="M89" s="2">
-        <v>3</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O89" s="1">
-        <v>0</v>
-      </c>
-      <c r="P89" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>150</v>
-      </c>
-      <c r="R89" s="1">
-        <v>150</v>
-      </c>
-      <c r="S89" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T89" s="2">
-        <v>4</v>
-      </c>
-      <c r="U89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V89" s="1">
-        <v>0</v>
-      </c>
-      <c r="W89" s="1">
-        <v>0</v>
-      </c>
-      <c r="X89" s="1">
-        <v>250</v>
-      </c>
-      <c r="Y89" s="1">
-        <v>250</v>
-      </c>
-      <c r="Z89" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA89" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AB89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE89" s="1">
-        <v>65</v>
-      </c>
-      <c r="AF89" s="1">
-        <v>65</v>
-      </c>
-      <c r="AG89" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH89" s="2">
+      <c r="AG69">
+        <v>5000</v>
+      </c>
+      <c r="AH69" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ShipStats.xlsx
+++ b/ShipStats.xlsx
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,8 +1195,7 @@
     <col min="15" max="15" width="7" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="7" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="1" customWidth="1"/>
     <col min="20" max="20" width="7.28515625" style="2" customWidth="1"/>
     <col min="21" max="22" width="9.140625" style="1"/>
     <col min="23" max="23" width="5.7109375" style="1" customWidth="1"/>
@@ -1344,7 +1343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1905,7 +1904,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>8</v>
       </c>
       <c r="O11" s="1">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="P11" s="1">
         <v>0</v>
@@ -2273,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="T11" s="2">
         <v>12</v>
@@ -2321,7 +2320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -3880,7 +3879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>83</v>
       </c>

--- a/ShipStats.xlsx
+++ b/ShipStats.xlsx
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3798,79 +3798,79 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>180</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="H27">
-        <v>8000</v>
+        <v>550</v>
       </c>
       <c r="I27">
-        <v>8000</v>
+        <v>550</v>
       </c>
       <c r="J27">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L27">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="M27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O27" s="1">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="P27" s="1">
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="R27" s="1">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="S27" s="1">
         <v>10000</v>
       </c>
       <c r="T27" s="2">
-        <v>4.4000000000000004</v>
+        <v>1</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="V27" s="1">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="W27" s="1">
         <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="1">
         <v>10000</v>
@@ -3881,237 +3881,216 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>800</v>
+        <v>210</v>
       </c>
       <c r="D28">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="H28">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="I28">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="J28">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L28">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="M28" s="2">
         <v>1</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O28" s="1">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="P28" s="1">
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R28" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="S28" s="1">
         <v>10000</v>
       </c>
       <c r="T28" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D29">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>700</v>
+      </c>
+      <c r="I29">
+        <v>700</v>
+      </c>
+      <c r="J29">
+        <v>200</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>30</v>
+      </c>
+      <c r="R29" s="1">
+        <v>30</v>
+      </c>
+      <c r="S29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T29" s="2">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1">
         <v>15</v>
       </c>
-      <c r="G29">
-        <v>70</v>
-      </c>
-      <c r="H29">
-        <v>3200</v>
-      </c>
-      <c r="I29">
-        <v>3200</v>
-      </c>
-      <c r="J29">
-        <v>72</v>
-      </c>
-      <c r="K29">
-        <v>6</v>
-      </c>
-      <c r="L29">
-        <v>0.65</v>
-      </c>
-      <c r="M29" s="2">
-        <v>3</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="1">
-        <v>240</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T29" s="2">
-        <v>4</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V29" s="1">
-        <v>200</v>
-      </c>
-      <c r="W29" s="1">
-        <v>0</v>
-      </c>
-      <c r="X29" s="1">
-        <v>0</v>
-      </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z29" s="1">
         <v>10000</v>
       </c>
       <c r="AA29" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>36</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH29" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>4180</v>
+      </c>
+      <c r="I30">
+        <v>4180</v>
+      </c>
+      <c r="J30">
+        <v>120</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>0.75</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30" s="1">
+        <v>600</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>140</v>
+      </c>
+      <c r="R30" s="1">
+        <v>140</v>
+      </c>
+      <c r="S30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T30" s="2">
+        <v>2</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V30" s="1">
         <v>35</v>
       </c>
-      <c r="E30">
-        <v>75</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>40</v>
-      </c>
-      <c r="H30">
-        <v>1100</v>
-      </c>
-      <c r="I30">
-        <v>1100</v>
-      </c>
-      <c r="J30">
-        <v>72</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>0.6</v>
-      </c>
-      <c r="M30" s="2">
-        <v>3</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" s="1">
-        <v>25</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T30" s="2">
-        <v>4</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V30" s="1">
-        <v>120</v>
-      </c>
       <c r="W30" s="1">
         <v>0</v>
       </c>
@@ -4125,42 +4104,21 @@
         <v>10000</v>
       </c>
       <c r="AA30" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>150</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH30" s="2">
-        <v>13.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4169,13 +4127,13 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H31">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="I31">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4187,22 +4145,22 @@
         <v>0.6</v>
       </c>
       <c r="M31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="O31" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P31" s="1">
         <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1">
         <v>10000</v>
@@ -4211,241 +4169,211 @@
         <v>1</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V31" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1">
         <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z31" s="1">
         <v>10000</v>
       </c>
       <c r="AA31" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1400</v>
+        <v>4180</v>
       </c>
       <c r="I32">
-        <v>1700</v>
+        <v>4180</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>0.75</v>
+      </c>
+      <c r="M32" s="2">
         <v>2</v>
       </c>
-      <c r="L32">
-        <v>0.6</v>
-      </c>
-      <c r="M32" s="2">
-        <v>3</v>
-      </c>
       <c r="N32" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O32" s="1">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="P32" s="1">
         <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R32" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S32" s="1">
         <v>10000</v>
       </c>
       <c r="T32" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V32" s="1">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="W32" s="1">
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Z32" s="1">
         <v>10000</v>
       </c>
       <c r="AA32" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>90</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH32" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D33">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>25</v>
       </c>
       <c r="H33">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="I33">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="J33">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L33">
         <v>0.6</v>
       </c>
       <c r="M33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="1">
-        <v>120</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0</v>
-      </c>
-      <c r="S33" s="1">
-        <v>10000</v>
+        <v>93</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>15</v>
+      </c>
+      <c r="R33">
+        <v>15</v>
+      </c>
+      <c r="S33">
+        <v>4000</v>
       </c>
       <c r="T33" s="2">
-        <v>4</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V33" s="1">
-        <v>100</v>
-      </c>
-      <c r="W33" s="1">
-        <v>0</v>
-      </c>
-      <c r="X33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D34">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E34">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="H34">
-        <v>1885</v>
+        <v>1100</v>
       </c>
       <c r="I34">
-        <v>1885</v>
+        <v>1100</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4457,13 +4385,13 @@
         <v>0.6</v>
       </c>
       <c r="M34" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O34" s="1">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="P34" s="1">
         <v>0</v>
@@ -4478,13 +4406,13 @@
         <v>10000</v>
       </c>
       <c r="T34" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V34" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
@@ -4499,75 +4427,54 @@
         <v>10000</v>
       </c>
       <c r="AA34" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>80</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH34" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="D35">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H35">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="I35">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L35">
         <v>0.6</v>
       </c>
       <c r="M35" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O35" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="P35" s="1">
         <v>0</v>
@@ -4582,13 +4489,13 @@
         <v>10000</v>
       </c>
       <c r="T35" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V35" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -4603,122 +4510,122 @@
         <v>10000</v>
       </c>
       <c r="AA35" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>100</v>
-      </c>
-      <c r="AD35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH35" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
       <c r="C36">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D36">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>25</v>
       </c>
       <c r="H36">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="I36">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L36">
         <v>0.6</v>
       </c>
       <c r="M36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O36" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P36" s="1">
         <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R36" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="S36" s="1">
         <v>10000</v>
       </c>
       <c r="T36" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>33</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>33</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37">
-        <v>620</v>
+        <v>225</v>
       </c>
       <c r="D37">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E37">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G37">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H37">
-        <v>2605</v>
+        <v>1400</v>
       </c>
       <c r="I37">
-        <v>2605</v>
+        <v>1200</v>
       </c>
       <c r="J37">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -4727,35 +4634,35 @@
         <v>0.6</v>
       </c>
       <c r="M37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O37" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="P37" s="1">
         <v>0</v>
       </c>
       <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T37" s="2">
+        <v>4</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V37" s="1">
         <v>100</v>
       </c>
-      <c r="R37" s="1">
-        <v>100</v>
-      </c>
-      <c r="S37" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T37" s="2">
-        <v>4</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V37" s="1">
-        <v>150</v>
-      </c>
       <c r="W37" s="1">
         <v>0</v>
       </c>
@@ -4769,57 +4676,36 @@
         <v>10000</v>
       </c>
       <c r="AA37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>200</v>
-      </c>
-      <c r="AD37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH37" s="2">
-        <v>13.5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="D38">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E38">
         <v>25</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H38">
-        <v>1400</v>
+        <v>1885</v>
       </c>
       <c r="I38">
-        <v>1400</v>
+        <v>1885</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4837,7 +4723,7 @@
         <v>8</v>
       </c>
       <c r="O38" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P38" s="1">
         <v>0</v>
@@ -4858,7 +4744,7 @@
         <v>8</v>
       </c>
       <c r="V38" s="1">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="W38" s="1">
         <v>0</v>
@@ -4879,7 +4765,7 @@
         <v>6</v>
       </c>
       <c r="AC38" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AD38" s="1">
         <v>0</v>
@@ -4894,39 +4780,39 @@
         <v>10000</v>
       </c>
       <c r="AH38" s="2">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H39">
-        <v>700</v>
+        <v>1195</v>
       </c>
       <c r="I39">
-        <v>700</v>
+        <v>1195</v>
       </c>
       <c r="J39">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4935,10 +4821,10 @@
         <v>0.6</v>
       </c>
       <c r="M39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O39" s="1">
         <v>0</v>
@@ -4947,16 +4833,16 @@
         <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="R39" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="S39" s="1">
         <v>10000</v>
       </c>
       <c r="T39" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>7</v>
@@ -4968,10 +4854,10 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y39" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Z39" s="1">
         <v>10000</v>
@@ -4979,49 +4865,70 @@
       <c r="AA39" s="2">
         <v>1</v>
       </c>
+      <c r="AB39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>42</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>42</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="I40">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="J40">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>0.6</v>
       </c>
       <c r="M40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O40" s="1">
         <v>120</v>
@@ -5039,13 +4946,13 @@
         <v>10000</v>
       </c>
       <c r="T40" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="V40" s="1">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
@@ -5060,39 +4967,60 @@
         <v>10000</v>
       </c>
       <c r="AA40" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>90</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D41">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
         <v>50</v>
       </c>
-      <c r="F41">
-        <v>7</v>
-      </c>
-      <c r="G41">
-        <v>55</v>
-      </c>
       <c r="H41">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I41">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -5101,43 +5029,43 @@
         <v>0.6</v>
       </c>
       <c r="M41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O41" s="1">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="P41" s="1">
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S41" s="1">
         <v>10000</v>
       </c>
       <c r="T41" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="V41" s="1">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
       </c>
       <c r="X41" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="1">
         <v>10000</v>
@@ -5145,58 +5073,37 @@
       <c r="AA41" s="2">
         <v>5</v>
       </c>
-      <c r="AB41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>60</v>
-      </c>
-      <c r="AD41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="1">
-        <v>60</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>60</v>
-      </c>
-      <c r="AG41" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH41" s="2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="D42">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E42">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H42">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="I42">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="J42">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -5205,20 +5112,20 @@
         <v>0.6</v>
       </c>
       <c r="M42" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
         <v>200</v>
       </c>
-      <c r="P42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>0</v>
-      </c>
       <c r="R42" s="1">
         <v>0</v>
       </c>
@@ -5226,19 +5133,19 @@
         <v>10000</v>
       </c>
       <c r="T42" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V42" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W42" s="1">
         <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Y42" s="1">
         <v>0</v>
@@ -5247,84 +5154,42 @@
         <v>10000</v>
       </c>
       <c r="AA42" s="2">
-        <v>15</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>200</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH42" s="2">
-        <v>5</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ42">
-        <v>150</v>
-      </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
-      <c r="AM42">
-        <v>0</v>
-      </c>
-      <c r="AN42">
-        <v>10000</v>
-      </c>
-      <c r="AO42">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
         <v>3</v>
       </c>
-      <c r="G43">
-        <v>35</v>
-      </c>
       <c r="H43">
-        <v>1195</v>
+        <v>1890</v>
       </c>
       <c r="I43">
-        <v>1195</v>
+        <v>2360</v>
       </c>
       <c r="J43">
         <v>12</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L43">
         <v>0.6</v>
@@ -5336,96 +5201,96 @@
         <v>8</v>
       </c>
       <c r="O43" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P43" s="1">
         <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="S43" s="1">
         <v>10000</v>
       </c>
       <c r="T43" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="1">
+        <v>100</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V43" s="1">
-        <v>0</v>
-      </c>
-      <c r="W43" s="1">
-        <v>0</v>
-      </c>
-      <c r="X43" s="1">
-        <v>30</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>30</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA43" s="2">
+      <c r="AC43" s="1">
+        <v>35</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH43" s="2">
         <v>1</v>
       </c>
-      <c r="AB43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>42</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>42</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH43" s="2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="D44">
         <v>50</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F44">
         <v>4</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H44">
-        <v>2200</v>
+        <v>2020</v>
       </c>
       <c r="I44">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="J44">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -5434,13 +5299,13 @@
         <v>0.6</v>
       </c>
       <c r="M44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O44" s="1">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="P44" s="1">
         <v>0</v>
@@ -5458,10 +5323,10 @@
         <v>4</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V44" s="1">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="W44" s="1">
         <v>0</v>
@@ -5476,42 +5341,63 @@
         <v>10000</v>
       </c>
       <c r="AA44" s="2">
-        <v>5</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>300</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH44" s="2">
+        <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="D45">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H45">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="I45">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="J45">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45">
         <v>0.6</v>
@@ -5520,78 +5406,84 @@
         <v>2</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>200</v>
-      </c>
-      <c r="R45" s="1">
-        <v>0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>10000</v>
+        <v>93</v>
+      </c>
+      <c r="O45">
+        <v>25</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>5000</v>
       </c>
       <c r="T45" s="2">
         <v>4</v>
       </c>
-      <c r="U45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="1">
-        <v>0</v>
-      </c>
-      <c r="W45" s="1">
-        <v>0</v>
-      </c>
-      <c r="X45" s="1">
-        <v>150</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="1">
-        <v>10000</v>
+      <c r="U45" t="s">
+        <v>94</v>
+      </c>
+      <c r="V45">
+        <v>18</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>5500</v>
       </c>
       <c r="AA45" s="2">
-        <v>4</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H46">
-        <v>1100</v>
+        <v>1337</v>
       </c>
       <c r="I46">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -5600,96 +5492,87 @@
         <v>0.6</v>
       </c>
       <c r="M46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O46" s="1">
-        <v>350</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>0</v>
-      </c>
-      <c r="R46" s="1">
-        <v>0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>10000</v>
+        <v>93</v>
+      </c>
+      <c r="O46">
+        <v>200</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>5000</v>
       </c>
       <c r="T46" s="2">
-        <v>13</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V46" s="1">
-        <v>30</v>
-      </c>
-      <c r="W46" s="1">
-        <v>0</v>
-      </c>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA46" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="D47">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H47">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="I47">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="J47">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L47">
         <v>0.6</v>
       </c>
       <c r="M47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O47" s="1">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="P47" s="1">
         <v>0</v>
@@ -5704,60 +5587,81 @@
         <v>10000</v>
       </c>
       <c r="T47" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="1">
+        <v>120</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V47" s="1">
-        <v>190</v>
-      </c>
-      <c r="W47" s="1">
-        <v>0</v>
-      </c>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA47" s="2">
-        <v>6.5</v>
+      <c r="AC47" s="1">
+        <v>150</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH47" s="2">
+        <v>13.5</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>87</v>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>450</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H48">
-        <v>2610</v>
+        <v>1400</v>
       </c>
       <c r="I48">
-        <v>2048</v>
+        <v>1400</v>
       </c>
       <c r="J48">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -5766,7 +5670,7 @@
         <v>0.6</v>
       </c>
       <c r="M48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>8</v>
@@ -5778,10 +5682,10 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="S48" s="1">
         <v>10000</v>
@@ -5790,39 +5694,60 @@
         <v>4</v>
       </c>
       <c r="U48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="1">
+        <v>96</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V48" s="1">
-        <v>0</v>
-      </c>
-      <c r="W48" s="1">
-        <v>0</v>
-      </c>
-      <c r="X48" s="1">
-        <v>100</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>100</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>4</v>
+      <c r="AC48" s="1">
+        <v>60</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH48" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D49">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E49">
         <v>10</v>
@@ -5831,31 +5756,31 @@
         <v>5</v>
       </c>
       <c r="G49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H49">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="I49">
-        <v>2360</v>
+        <v>1900</v>
       </c>
       <c r="J49">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="K49">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L49">
         <v>0.6</v>
       </c>
       <c r="M49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O49" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="P49" s="1">
         <v>0</v>
@@ -5870,13 +5795,13 @@
         <v>10000</v>
       </c>
       <c r="T49" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="V49" s="1">
-        <v>440</v>
+        <v>84</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -5891,200 +5816,158 @@
         <v>10000</v>
       </c>
       <c r="AA49" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>220</v>
-      </c>
-      <c r="AD49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH49" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>89</v>
+      <c r="A50" t="s">
+        <v>87</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>1890</v>
+        <v>2610</v>
       </c>
       <c r="I50">
-        <v>2360</v>
+        <v>2048</v>
       </c>
       <c r="J50">
         <v>12</v>
       </c>
       <c r="K50">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L50">
         <v>0.6</v>
       </c>
       <c r="M50" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O50" s="1">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="P50" s="1">
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="R50" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="S50" s="1">
         <v>10000</v>
       </c>
       <c r="T50" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
         <v>100</v>
       </c>
-      <c r="W50" s="1">
-        <v>0</v>
-      </c>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z50" s="1">
         <v>10000</v>
       </c>
       <c r="AA50" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>35</v>
-      </c>
-      <c r="AD50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH50" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>4180</v>
+        <v>1890</v>
       </c>
       <c r="I51">
-        <v>4180</v>
+        <v>2360</v>
       </c>
       <c r="J51">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L51">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="M51" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O51" s="1">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="P51" s="1">
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R51" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S51" s="1">
         <v>10000</v>
       </c>
       <c r="T51" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V51" s="1">
-        <v>35</v>
+        <v>440</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -6099,7 +5982,28 @@
         <v>10000</v>
       </c>
       <c r="AA51" s="2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>220</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
@@ -6187,162 +6091,141 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="D53">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>3420</v>
+        <v>2600</v>
       </c>
       <c r="I53">
-        <v>3400</v>
+        <v>2660</v>
       </c>
       <c r="J53">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L53">
         <v>0.6</v>
       </c>
       <c r="M53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O53" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="P53" s="1">
         <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R53" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1">
         <v>10000</v>
       </c>
       <c r="T53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V53" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="W53" s="1">
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Y53" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Z53" s="1">
         <v>10000</v>
       </c>
       <c r="AA53" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC53" s="1">
-        <v>75</v>
+        <v>650</v>
       </c>
       <c r="AD53" s="1">
         <v>0</v>
       </c>
       <c r="AE53" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="1">
         <v>10000</v>
       </c>
       <c r="AH53" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ53">
-        <v>120</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <v>10000</v>
-      </c>
-      <c r="AO53">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
       <c r="C54">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G54">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H54">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="I54">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K54">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L54">
         <v>0.6</v>
@@ -6351,259 +6234,307 @@
         <v>2</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O54" s="1">
-        <v>20</v>
-      </c>
-      <c r="P54" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>0</v>
-      </c>
-      <c r="R54" s="1">
-        <v>0</v>
-      </c>
-      <c r="S54" s="1">
-        <v>10000</v>
+        <v>91</v>
+      </c>
+      <c r="O54">
+        <v>120</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>5000</v>
       </c>
       <c r="T54" s="2">
-        <v>1</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V54" s="1">
-        <v>0</v>
-      </c>
-      <c r="W54" s="1">
-        <v>0</v>
-      </c>
-      <c r="X54" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y54" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z54" s="1">
-        <v>10000</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U54" t="s">
+        <v>92</v>
+      </c>
+      <c r="V54">
+        <v>210</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>5000</v>
       </c>
       <c r="AA54" s="2">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="D55">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G55">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H55">
-        <v>3290</v>
+        <v>3000</v>
       </c>
       <c r="I55">
-        <v>3260</v>
+        <v>3000</v>
       </c>
       <c r="J55">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L55">
         <v>0.6</v>
       </c>
       <c r="M55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O55" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P55" s="1">
         <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R55" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S55" s="1">
         <v>10000</v>
       </c>
       <c r="T55" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="V55" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W55" s="1">
         <v>0</v>
       </c>
       <c r="X55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC55" s="1">
         <v>100</v>
       </c>
-      <c r="Y55" s="1">
-        <v>100</v>
-      </c>
-      <c r="Z55" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA55" s="2">
-        <v>4.4000000000000004</v>
+      <c r="AD55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH55" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>60</v>
+      </c>
+      <c r="H56">
+        <v>2605</v>
+      </c>
+      <c r="I56">
+        <v>2605</v>
+      </c>
+      <c r="J56">
+        <v>144</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>0.6</v>
+      </c>
+      <c r="M56" s="2">
+        <v>3</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O56" s="1">
+        <v>200</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>100</v>
+      </c>
+      <c r="R56" s="1">
+        <v>100</v>
+      </c>
+      <c r="S56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T56" s="2">
+        <v>4</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V56" s="1">
+        <v>150</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA56" s="2">
         <v>1</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>4180</v>
-      </c>
-      <c r="I56">
-        <v>4180</v>
-      </c>
-      <c r="J56">
-        <v>120</v>
-      </c>
-      <c r="K56">
-        <v>5</v>
-      </c>
-      <c r="L56">
-        <v>0.75</v>
-      </c>
-      <c r="M56" s="2">
-        <v>2</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O56" s="1">
-        <v>350</v>
-      </c>
-      <c r="P56" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>40</v>
-      </c>
-      <c r="R56" s="1">
-        <v>40</v>
-      </c>
-      <c r="S56" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T56" s="2">
-        <v>2</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V56" s="1">
-        <v>350</v>
-      </c>
-      <c r="W56" s="1">
-        <v>0</v>
-      </c>
-      <c r="X56" s="1">
-        <v>150</v>
-      </c>
-      <c r="Y56" s="1">
-        <v>150</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA56" s="2">
-        <v>4.4000000000000004</v>
+      <c r="AB56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH56" s="2">
+        <v>13.5</v>
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D57">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E57">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G57">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H57">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I57">
-        <v>2660</v>
+        <v>2700</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K57">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L57">
         <v>0.6</v>
       </c>
       <c r="M57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N57" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O57" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="P57" s="1">
         <v>0</v>
@@ -6618,188 +6549,146 @@
         <v>10000</v>
       </c>
       <c r="T57" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V57" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="W57" s="1">
         <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="1">
         <v>10000</v>
       </c>
       <c r="AA57" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC57" s="1">
-        <v>650</v>
-      </c>
-      <c r="AD57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH57" s="2">
-        <v>13.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="D58">
         <v>50</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H58">
-        <v>2020</v>
+        <v>2590</v>
       </c>
       <c r="I58">
-        <v>2800</v>
+        <v>2560</v>
       </c>
       <c r="J58">
         <v>12</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L58">
         <v>0.6</v>
       </c>
       <c r="M58" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="O58" s="1">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="P58" s="1">
         <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R58" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S58" s="1">
         <v>10000</v>
       </c>
       <c r="T58" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="V58" s="1">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="W58" s="1">
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y58" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z58" s="1">
         <v>10000</v>
       </c>
       <c r="AA58" s="2">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="AB58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC58" s="1">
-        <v>300</v>
-      </c>
-      <c r="AD58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AH58" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>45</v>
+      </c>
+      <c r="H59">
+        <v>2610</v>
+      </c>
+      <c r="I59">
+        <v>2648</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
         <v>2</v>
-      </c>
-      <c r="G59">
-        <v>20</v>
-      </c>
-      <c r="H59">
-        <v>1100</v>
-      </c>
-      <c r="I59">
-        <v>1100</v>
-      </c>
-      <c r="J59">
-        <v>10</v>
-      </c>
-      <c r="K59">
-        <v>3.5</v>
       </c>
       <c r="L59">
         <v>0.6</v>
@@ -6808,158 +6697,155 @@
         <v>2</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="1">
-        <v>120</v>
-      </c>
-      <c r="P59" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>0</v>
-      </c>
-      <c r="R59" s="1">
-        <v>0</v>
-      </c>
-      <c r="S59" s="1">
-        <v>10000</v>
+        <v>92</v>
+      </c>
+      <c r="O59">
+        <v>100</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>50</v>
+      </c>
+      <c r="R59">
+        <v>50</v>
+      </c>
+      <c r="S59">
+        <v>5000</v>
       </c>
       <c r="T59" s="2">
-        <v>2</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V59" s="1">
-        <v>40</v>
-      </c>
-      <c r="W59" s="1">
-        <v>0</v>
-      </c>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="1">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="U59" t="s">
+        <v>92</v>
+      </c>
+      <c r="V59">
+        <v>150</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>50</v>
+      </c>
+      <c r="Y59">
+        <v>50</v>
+      </c>
+      <c r="Z59">
+        <v>5000</v>
       </c>
       <c r="AA59" s="2">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D60">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E60">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>2590</v>
+        <v>1505</v>
       </c>
       <c r="I60">
-        <v>2560</v>
+        <v>1505</v>
       </c>
       <c r="J60">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="K60">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L60">
         <v>0.6</v>
       </c>
       <c r="M60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="1">
-        <v>200</v>
-      </c>
-      <c r="P60" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>20</v>
-      </c>
-      <c r="R60" s="1">
-        <v>20</v>
-      </c>
-      <c r="S60" s="1">
-        <v>10000</v>
+        <v>92</v>
+      </c>
+      <c r="O60">
+        <v>175</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>5000</v>
       </c>
       <c r="T60" s="2">
-        <v>2</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V60" s="1">
-        <v>120</v>
-      </c>
-      <c r="W60" s="1">
-        <v>0</v>
-      </c>
-      <c r="X60" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y60" s="1">
-        <v>20</v>
-      </c>
-      <c r="Z60" s="1">
-        <v>10000</v>
-      </c>
-      <c r="AA60" s="2">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61">
-        <v>200</v>
+        <v>620</v>
       </c>
       <c r="D61">
+        <v>75</v>
+      </c>
+      <c r="E61">
         <v>50</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
       <c r="F61">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G61">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="H61">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="I61">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -6971,81 +6857,102 @@
         <v>0.6</v>
       </c>
       <c r="M61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O61" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="1">
         <v>0</v>
       </c>
       <c r="Q61" s="1">
+        <v>80</v>
+      </c>
+      <c r="R61" s="1">
+        <v>80</v>
+      </c>
+      <c r="S61" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T61" s="2">
+        <v>5</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V61" s="1">
         <v>100</v>
       </c>
-      <c r="R61" s="1">
-        <v>100</v>
-      </c>
-      <c r="S61" s="1">
-        <v>10000</v>
-      </c>
-      <c r="T61" s="2">
-        <v>4</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V61" s="1">
-        <v>0</v>
-      </c>
       <c r="W61" s="1">
         <v>0</v>
       </c>
       <c r="X61" s="1">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="Y61" s="1">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="Z61" s="1">
         <v>10000</v>
       </c>
       <c r="AA61" s="2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="AB61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>60</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>60</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH61" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62">
-        <v>540</v>
+        <v>680</v>
       </c>
       <c r="D62">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F62">
         <v>6</v>
       </c>
       <c r="G62">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H62">
-        <v>2610</v>
+        <v>3185</v>
       </c>
       <c r="I62">
-        <v>2648</v>
+        <v>3185</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -7054,13 +6961,13 @@
         <v>0.6</v>
       </c>
       <c r="M62" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N62" s="6" t="s">
         <v>92</v>
       </c>
       <c r="O62">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -7081,7 +6988,7 @@
         <v>92</v>
       </c>
       <c r="V62">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="W62">
         <v>0</v>
@@ -7098,132 +7005,183 @@
       <c r="AA62" s="2">
         <v>4</v>
       </c>
-      <c r="AB62"/>
-      <c r="AC62"/>
-      <c r="AD62"/>
-      <c r="AE62"/>
-      <c r="AF62"/>
-      <c r="AG62"/>
+      <c r="AB62" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC62">
+        <v>650</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>50</v>
+      </c>
+      <c r="AF62">
+        <v>50</v>
+      </c>
+      <c r="AG62">
+        <v>5500</v>
+      </c>
+      <c r="AH62" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>410</v>
+        <v>900</v>
       </c>
       <c r="D63">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E63">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G63">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H63">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="I63">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="J63">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L63">
         <v>0.6</v>
       </c>
       <c r="M63" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O63">
-        <v>25</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>5000</v>
+        <v>10</v>
+      </c>
+      <c r="O63" s="1">
+        <v>200</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>10000</v>
       </c>
       <c r="T63" s="2">
-        <v>4</v>
-      </c>
-      <c r="U63" t="s">
-        <v>94</v>
-      </c>
-      <c r="V63">
-        <v>18</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>5500</v>
+        <v>15</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V63" s="1">
+        <v>200</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>10000</v>
       </c>
       <c r="AA63" s="2">
         <v>15</v>
       </c>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
+      <c r="AB63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>200</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH63" s="2">
+        <v>5</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ63">
+        <v>150</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>10000</v>
+      </c>
+      <c r="AO63">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
       <c r="C64">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="D64">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E64">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G64">
         <v>50</v>
       </c>
       <c r="H64">
-        <v>1337</v>
+        <v>3420</v>
       </c>
       <c r="I64">
-        <v>1500</v>
+        <v>3400</v>
       </c>
       <c r="J64">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -7232,72 +7190,123 @@
         <v>0.6</v>
       </c>
       <c r="M64" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O64">
+        <v>8</v>
+      </c>
+      <c r="O64" s="1">
         <v>200</v>
       </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>5000</v>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>50</v>
+      </c>
+      <c r="R64" s="1">
+        <v>50</v>
+      </c>
+      <c r="S64" s="1">
+        <v>10000</v>
       </c>
       <c r="T64" s="2">
         <v>4</v>
       </c>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64"/>
-      <c r="Y64"/>
-      <c r="Z64"/>
-      <c r="AB64"/>
-      <c r="AC64"/>
-      <c r="AD64"/>
-      <c r="AE64"/>
-      <c r="AF64"/>
-      <c r="AG64"/>
+      <c r="U64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V64" s="1">
+        <v>75</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>100</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>75</v>
+      </c>
+      <c r="AD64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>50</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>50</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AH64" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ64">
+        <v>120</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>10000</v>
+      </c>
+      <c r="AO64">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
       <c r="C65">
-        <v>210</v>
+        <v>950</v>
       </c>
       <c r="D65">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G65">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H65">
-        <v>600</v>
+        <v>3290</v>
       </c>
       <c r="I65">
-        <v>600</v>
+        <v>3260</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K65">
         <v>3.5</v>
@@ -7306,72 +7315,81 @@
         <v>0.6</v>
       </c>
       <c r="M65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>15</v>
-      </c>
-      <c r="R65">
-        <v>15</v>
-      </c>
-      <c r="S65">
-        <v>4000</v>
+        <v>8</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>200</v>
+      </c>
+      <c r="R65" s="1">
+        <v>200</v>
+      </c>
+      <c r="S65" s="1">
+        <v>10000</v>
       </c>
       <c r="T65" s="2">
-        <v>1</v>
-      </c>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-      <c r="Z65"/>
-      <c r="AB65"/>
-      <c r="AC65"/>
-      <c r="AD65"/>
-      <c r="AE65"/>
-      <c r="AF65"/>
-      <c r="AG65"/>
+        <v>2</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>100</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66">
-        <v>300</v>
+        <v>860</v>
       </c>
       <c r="D66">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E66">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G66">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H66">
-        <v>1505</v>
+        <v>3185</v>
       </c>
       <c r="I66">
-        <v>1505</v>
+        <v>3185</v>
       </c>
       <c r="J66">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -7380,22 +7398,22 @@
         <v>0.6</v>
       </c>
       <c r="M66" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N66" s="6" t="s">
         <v>92</v>
       </c>
       <c r="O66">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S66">
         <v>5000</v>
@@ -7403,207 +7421,210 @@
       <c r="T66" s="2">
         <v>4</v>
       </c>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AB66"/>
-      <c r="AC66"/>
-      <c r="AD66"/>
-      <c r="AE66"/>
-      <c r="AF66"/>
-      <c r="AG66"/>
+      <c r="U66" t="s">
+        <v>91</v>
+      </c>
+      <c r="V66">
+        <v>120</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>40</v>
+      </c>
+      <c r="Y66">
+        <v>40</v>
+      </c>
+      <c r="Z66">
+        <v>5000</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC66">
+        <v>150</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>40</v>
+      </c>
+      <c r="AF66">
+        <v>40</v>
+      </c>
+      <c r="AG66">
+        <v>5000</v>
+      </c>
+      <c r="AH66" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D67">
         <v>70</v>
       </c>
       <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
         <v>15</v>
       </c>
-      <c r="F67">
-        <v>5</v>
-      </c>
       <c r="G67">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H67">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="I67">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J67">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L67">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="M67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O67">
-        <v>120</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>5000</v>
+        <v>8</v>
+      </c>
+      <c r="O67" s="1">
+        <v>250</v>
+      </c>
+      <c r="P67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>100</v>
+      </c>
+      <c r="R67" s="1">
+        <v>100</v>
+      </c>
+      <c r="S67" s="1">
+        <v>10000</v>
       </c>
       <c r="T67" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U67" t="s">
-        <v>92</v>
-      </c>
-      <c r="V67">
-        <v>210</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>5000</v>
-      </c>
-      <c r="AA67" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB67"/>
-      <c r="AC67"/>
-      <c r="AD67"/>
-      <c r="AE67"/>
-      <c r="AF67"/>
-      <c r="AG67"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>680</v>
+        <v>800</v>
       </c>
       <c r="D68">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E68">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G68">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H68">
-        <v>3185</v>
+        <v>3200</v>
       </c>
       <c r="I68">
-        <v>3185</v>
+        <v>3200</v>
       </c>
       <c r="J68">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L68">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="M68" s="2">
         <v>3</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O68">
-        <v>90</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>50</v>
-      </c>
-      <c r="R68">
-        <v>50</v>
-      </c>
-      <c r="S68">
-        <v>5000</v>
+        <v>8</v>
+      </c>
+      <c r="O68" s="1">
+        <v>240</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>10000</v>
       </c>
       <c r="T68" s="2">
         <v>4</v>
       </c>
-      <c r="U68" t="s">
-        <v>92</v>
-      </c>
-      <c r="V68">
-        <v>90</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>50</v>
-      </c>
-      <c r="Y68">
-        <v>50</v>
-      </c>
-      <c r="Z68">
-        <v>5000</v>
+      <c r="U68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V68" s="1">
+        <v>200</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>10000</v>
       </c>
       <c r="AA68" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC68">
-        <v>650</v>
-      </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <v>50</v>
-      </c>
-      <c r="AF68">
-        <v>50</v>
-      </c>
-      <c r="AG68">
-        <v>5500</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>36</v>
+      </c>
+      <c r="AD68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>10000</v>
       </c>
       <c r="AH68" s="2">
         <v>15</v>
@@ -7611,109 +7632,91 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69">
-        <v>860</v>
-      </c>
-      <c r="D69">
-        <v>75</v>
-      </c>
-      <c r="E69">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G69">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="H69">
-        <v>3185</v>
+        <v>8000</v>
       </c>
       <c r="I69">
-        <v>3185</v>
+        <v>8000</v>
       </c>
       <c r="J69">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="K69">
+        <v>6</v>
+      </c>
+      <c r="L69">
+        <v>0.65</v>
+      </c>
+      <c r="M69" s="2">
         <v>2</v>
       </c>
-      <c r="L69">
-        <v>0.6</v>
-      </c>
-      <c r="M69" s="2">
-        <v>3</v>
-      </c>
       <c r="N69" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O69">
-        <v>120</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>30</v>
-      </c>
-      <c r="R69">
-        <v>30</v>
-      </c>
-      <c r="S69">
-        <v>5000</v>
+        <v>6</v>
+      </c>
+      <c r="O69" s="1">
+        <v>400</v>
+      </c>
+      <c r="P69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>200</v>
+      </c>
+      <c r="R69" s="1">
+        <v>200</v>
+      </c>
+      <c r="S69" s="1">
+        <v>10000</v>
       </c>
       <c r="T69" s="2">
-        <v>4</v>
-      </c>
-      <c r="U69" t="s">
-        <v>91</v>
-      </c>
-      <c r="V69">
-        <v>120</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>40</v>
-      </c>
-      <c r="Y69">
-        <v>40</v>
-      </c>
-      <c r="Z69">
-        <v>5000</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V69" s="1">
+        <v>400</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1">
+        <v>400</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>400</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>10000</v>
       </c>
       <c r="AA69" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC69">
-        <v>150</v>
-      </c>
-      <c r="AD69">
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <v>40</v>
-      </c>
-      <c r="AF69">
-        <v>40</v>
-      </c>
-      <c r="AG69">
-        <v>5000</v>
-      </c>
-      <c r="AH69" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:AO69">
+    <sortCondition ref="F2:F69"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ShipStats.xlsx
+++ b/ShipStats.xlsx
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,10 +2343,10 @@
         <v>110</v>
       </c>
       <c r="H12">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="I12">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="J12">
         <v>60</v>

--- a/ShipStats.xlsx
+++ b/ShipStats.xlsx
@@ -1172,14 +1172,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="1.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>

--- a/ShipStats.xlsx
+++ b/ShipStats.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Documents\My Games\Ironclad Games\Sins of a Solar Empire Rebellion\Mods-Rebellion v1.85 Dev\Ascendancy-Sins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bane\Documents\My Games\Ironclad Games\Sins of a Solar Empire Rebellion\Mods-Rebellion v1.85 Dev\Ascendancy-Sins\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">information!$A$1:$AO$82</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="116">
   <si>
     <t>w1 Range</t>
   </si>
@@ -285,15 +288,6 @@
     <t>(IR) Katana</t>
   </si>
   <si>
-    <t>(HC) BattleDragon</t>
-  </si>
-  <si>
-    <t>(HC) NovaCruiser</t>
-  </si>
-  <si>
-    <t>(HC) StarHome</t>
-  </si>
-  <si>
     <t>"ION"</t>
   </si>
   <si>
@@ -328,12 +322,60 @@
   </si>
   <si>
     <t xml:space="preserve">(IR) VSDII </t>
+  </si>
+  <si>
+    <t>(HA) Ray</t>
+  </si>
+  <si>
+    <t>(HA) Flare</t>
+  </si>
+  <si>
+    <t>(HA) Beta</t>
+  </si>
+  <si>
+    <t>(HA) Express</t>
+  </si>
+  <si>
+    <t>(HA) Stella</t>
+  </si>
+  <si>
+    <t>(HA) Olanji</t>
+  </si>
+  <si>
+    <t>(HA) Charubah</t>
+  </si>
+  <si>
+    <t>(HA) Terephon</t>
+  </si>
+  <si>
+    <t>(HA) Corona</t>
+  </si>
+  <si>
+    <t>(HA) Neutron</t>
+  </si>
+  <si>
+    <t>(HA) Pulsar</t>
+  </si>
+  <si>
+    <t>(HA) Mist</t>
+  </si>
+  <si>
+    <t>(HA) Magnetar</t>
+  </si>
+  <si>
+    <t>(HA) BattleDragon</t>
+  </si>
+  <si>
+    <t>(HA) StarHome</t>
+  </si>
+  <si>
+    <t>(HA) NovaCruiser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -470,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,6 +704,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -841,7 +889,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -849,6 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1169,28 +1218,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AO82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <pane ySplit="19" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="6" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.85546875" style="1" customWidth="1"/>
@@ -1343,7 +1394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1426,7 +1477,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1530,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1634,7 +1685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1717,7 +1768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1904,7 +1955,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -2008,7 +2059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2112,7 +2163,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -2216,7 +2267,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2320,7 +2371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -2424,7 +2475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2549,7 +2600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -2632,7 +2683,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -2736,7 +2787,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -2819,7 +2870,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -2902,7 +2953,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -3006,7 +3057,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -3796,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -3879,7 +3930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
@@ -3941,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -4026,7 +4077,7 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -4107,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
@@ -4190,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -4275,7 +4326,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -4314,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -4347,7 +4398,7 @@
       <c r="AF33"/>
       <c r="AG33"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
@@ -4430,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -4596,7 +4647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -4679,7 +4730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4783,7 +4834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
@@ -4887,7 +4938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -4991,7 +5042,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
@@ -5074,7 +5125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
@@ -5159,7 +5210,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -5261,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>67</v>
       </c>
@@ -5367,7 +5418,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -5406,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O45">
         <v>25</v>
@@ -5427,7 +5478,7 @@
         <v>4</v>
       </c>
       <c r="U45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="V45">
         <v>18</v>
@@ -5456,7 +5507,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -5495,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O46">
         <v>200</v>
@@ -5528,7 +5579,7 @@
       <c r="AF46"/>
       <c r="AG46"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -5632,7 +5683,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
@@ -5736,7 +5787,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
@@ -5904,7 +5955,7 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -6006,7 +6057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
@@ -6047,7 +6098,7 @@
         <v>3</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O52">
         <v>100</v>
@@ -6068,7 +6119,7 @@
         <v>4</v>
       </c>
       <c r="U52" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V52">
         <v>150</v>
@@ -6089,7 +6140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>66</v>
       </c>
@@ -6195,7 +6246,7 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -6234,7 +6285,7 @@
         <v>2</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O54">
         <v>120</v>
@@ -6255,7 +6306,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="U54" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V54">
         <v>210</v>
@@ -6282,7 +6333,7 @@
       <c r="AF54"/>
       <c r="AG54"/>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>48</v>
       </c>
@@ -6490,7 +6541,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>60</v>
       </c>
@@ -6573,7 +6624,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>69</v>
       </c>
@@ -6658,7 +6709,7 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -6697,7 +6748,7 @@
         <v>2</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O59">
         <v>100</v>
@@ -6718,7 +6769,7 @@
         <v>4</v>
       </c>
       <c r="U59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V59">
         <v>150</v>
@@ -6747,7 +6798,7 @@
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -6786,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O60">
         <v>175</v>
@@ -6819,7 +6870,7 @@
       <c r="AF60"/>
       <c r="AG60"/>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>54</v>
       </c>
@@ -6925,7 +6976,7 @@
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -6964,7 +7015,7 @@
         <v>3</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O62">
         <v>90</v>
@@ -6985,7 +7036,7 @@
         <v>4</v>
       </c>
       <c r="U62" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V62">
         <v>90</v>
@@ -7006,7 +7057,7 @@
         <v>4</v>
       </c>
       <c r="AB62" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AC62">
         <v>650</v>
@@ -7027,7 +7078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>55</v>
       </c>
@@ -7152,7 +7203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
@@ -7277,7 +7328,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -7362,7 +7413,7 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -7401,7 +7452,7 @@
         <v>3</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O66">
         <v>120</v>
@@ -7422,7 +7473,7 @@
         <v>4</v>
       </c>
       <c r="U66" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="V66">
         <v>120</v>
@@ -7443,7 +7494,7 @@
         <v>4</v>
       </c>
       <c r="AB66" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AC66">
         <v>150</v>
@@ -7464,7 +7515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>82</v>
       </c>
@@ -7526,7 +7577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>83</v>
       </c>
@@ -7713,7 +7764,549 @@
         <v>4</v>
       </c>
     </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>200</v>
+      </c>
+      <c r="D71">
+        <v>30</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>25</v>
+      </c>
+      <c r="H71">
+        <v>650</v>
+      </c>
+      <c r="I71">
+        <v>650</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>3.5</v>
+      </c>
+      <c r="L71">
+        <v>0.6</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>220</v>
+      </c>
+      <c r="D72">
+        <v>40</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>25</v>
+      </c>
+      <c r="H72">
+        <v>1550</v>
+      </c>
+      <c r="I72">
+        <v>1550</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>0.6</v>
+      </c>
+      <c r="M72" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>200</v>
+      </c>
+      <c r="D73">
+        <v>30</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>25</v>
+      </c>
+      <c r="H73">
+        <v>1550</v>
+      </c>
+      <c r="I73">
+        <v>1550</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>0.6</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>320</v>
+      </c>
+      <c r="D74">
+        <v>60</v>
+      </c>
+      <c r="E74">
+        <v>75</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>40</v>
+      </c>
+      <c r="H74">
+        <v>1750</v>
+      </c>
+      <c r="I74">
+        <v>1750</v>
+      </c>
+      <c r="J74">
+        <v>133</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>0.6</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>650</v>
+      </c>
+      <c r="D75">
+        <v>75</v>
+      </c>
+      <c r="E75">
+        <v>50</v>
+      </c>
+      <c r="F75">
+        <v>6</v>
+      </c>
+      <c r="G75">
+        <v>60</v>
+      </c>
+      <c r="H75">
+        <v>2800</v>
+      </c>
+      <c r="I75">
+        <v>2800</v>
+      </c>
+      <c r="J75">
+        <v>133</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>0.6</v>
+      </c>
+      <c r="M75" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>750</v>
+      </c>
+      <c r="D76">
+        <v>85</v>
+      </c>
+      <c r="E76">
+        <v>75</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>50</v>
+      </c>
+      <c r="H76">
+        <v>1750</v>
+      </c>
+      <c r="I76">
+        <v>1750</v>
+      </c>
+      <c r="J76">
+        <v>24</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>0.6</v>
+      </c>
+      <c r="M76" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>850</v>
+      </c>
+      <c r="D77">
+        <v>95</v>
+      </c>
+      <c r="E77">
+        <v>85</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77">
+        <v>60</v>
+      </c>
+      <c r="H77">
+        <v>4550</v>
+      </c>
+      <c r="I77">
+        <v>4550</v>
+      </c>
+      <c r="J77">
+        <v>24</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>0.6</v>
+      </c>
+      <c r="M77" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>1200</v>
+      </c>
+      <c r="D78">
+        <v>100</v>
+      </c>
+      <c r="E78">
+        <v>50</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>90</v>
+      </c>
+      <c r="H78">
+        <v>4750</v>
+      </c>
+      <c r="I78">
+        <v>4750</v>
+      </c>
+      <c r="J78">
+        <v>56</v>
+      </c>
+      <c r="K78">
+        <v>5.5</v>
+      </c>
+      <c r="L78">
+        <v>0.65</v>
+      </c>
+      <c r="M78" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>1400</v>
+      </c>
+      <c r="D79">
+        <v>110</v>
+      </c>
+      <c r="E79">
+        <v>65</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>95</v>
+      </c>
+      <c r="H79">
+        <v>4950</v>
+      </c>
+      <c r="I79">
+        <v>4950</v>
+      </c>
+      <c r="J79">
+        <v>56</v>
+      </c>
+      <c r="K79">
+        <v>5.5</v>
+      </c>
+      <c r="L79">
+        <v>0.65</v>
+      </c>
+      <c r="M79" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>900</v>
+      </c>
+      <c r="D80">
+        <v>60</v>
+      </c>
+      <c r="E80">
+        <v>110</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>85</v>
+      </c>
+      <c r="H80">
+        <v>5450</v>
+      </c>
+      <c r="I80">
+        <v>5450</v>
+      </c>
+      <c r="J80">
+        <v>133</v>
+      </c>
+      <c r="K80">
+        <v>5.5</v>
+      </c>
+      <c r="L80">
+        <v>0.65</v>
+      </c>
+      <c r="M80" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>900</v>
+      </c>
+      <c r="D81">
+        <v>60</v>
+      </c>
+      <c r="E81">
+        <v>110</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>85</v>
+      </c>
+      <c r="H81">
+        <v>5450</v>
+      </c>
+      <c r="I81">
+        <v>5450</v>
+      </c>
+      <c r="J81">
+        <v>133</v>
+      </c>
+      <c r="K81">
+        <v>5.5</v>
+      </c>
+      <c r="L81">
+        <v>0.65</v>
+      </c>
+      <c r="M81" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>1600</v>
+      </c>
+      <c r="D82">
+        <v>180</v>
+      </c>
+      <c r="E82">
+        <v>55</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>95</v>
+      </c>
+      <c r="H82">
+        <v>6550</v>
+      </c>
+      <c r="I82">
+        <v>6550</v>
+      </c>
+      <c r="J82">
+        <v>56</v>
+      </c>
+      <c r="K82">
+        <v>6</v>
+      </c>
+      <c r="L82">
+        <v>0.65</v>
+      </c>
+      <c r="M82" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AO82" xr:uid="{0EFDF5D9-DFB6-4FE6-83FD-7EBB7A7830B6}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="(HA) BattleDragon"/>
+        <filter val="(HA) Beta"/>
+        <filter val="(HA) Charubah"/>
+        <filter val="(HA) Corona"/>
+        <filter val="(HA) Express"/>
+        <filter val="(HA) Flare"/>
+        <filter val="(HA) Magnetar"/>
+        <filter val="(HA) Mist"/>
+        <filter val="(HA) Neutron"/>
+        <filter val="(HA) NovaCruiser"/>
+        <filter val="(HA) Olanji"/>
+        <filter val="(HA) Pulsar"/>
+        <filter val="(HA) Ray"/>
+        <filter val="(HA) StarHome"/>
+        <filter val="(HA) Stella"/>
+        <filter val="(HA) Terephon"/>
+        <filter val="(IR) Allegiance"/>
+        <filter val="(IR) Altor"/>
+        <filter val="(IR) Carrack"/>
+        <filter val="(IR) Dreadnaught"/>
+        <filter val="(IR) EscortCarrier"/>
+        <filter val="(IR) Immobilizer"/>
+        <filter val="(IR) ISDI"/>
+        <filter val="(IR) ISDII"/>
+        <filter val="(IR) Katana"/>
+        <filter val="(IR) Lancer"/>
+        <filter val="(IR) MTC"/>
+        <filter val="(IR) Pellaeon"/>
+        <filter val="(IR) Strikecruiser"/>
+        <filter val="(IR) Thrawn"/>
+        <filter val="(IR) TorpedoSphere"/>
+        <filter val="(IR) VSDI"/>
+        <filter val="(IR) VSDII"/>
+        <filter val="(IR) WorldDevastator"/>
+        <filter val="(PA) Secutor"/>
+        <filter val="(PA) Venator"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:AO69">
     <sortCondition ref="F2:F69"/>
   </sortState>

--- a/ShipStats.xlsx
+++ b/ShipStats.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="116">
   <si>
     <t>w1 Range</t>
   </si>
@@ -889,7 +889,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -898,6 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1222,9 +1223,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="19" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="19" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>93</v>
       </c>
@@ -5505,7 +5506,7 @@
       <c r="AF45"/>
       <c r="AG45"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>94</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>97</v>
       </c>
@@ -6437,7 +6438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>8</v>
       </c>
       <c r="O58" s="1">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="P58" s="1">
         <v>0</v>
@@ -6707,7 +6708,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>92</v>
       </c>
@@ -6796,7 +6797,7 @@
       <c r="AF59"/>
       <c r="AG59"/>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>96</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>98</v>
       </c>
@@ -7411,7 +7412,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>99</v>
       </c>
@@ -7681,7 +7682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>42</v>
       </c>
@@ -7812,6 +7813,48 @@
       <c r="M71" s="2">
         <v>1</v>
       </c>
+      <c r="N71" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O71" s="1">
+        <v>35</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T71" s="2">
+        <v>1</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V71" s="8">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y71" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -7853,6 +7896,48 @@
       <c r="M72" s="2">
         <v>2</v>
       </c>
+      <c r="N72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O72" s="1">
+        <v>35</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T72" s="2">
+        <v>1</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y72" s="8">
+        <v>15</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -7894,6 +7979,27 @@
       <c r="M73" s="2">
         <v>1</v>
       </c>
+      <c r="N73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O73" s="1">
+        <v>35</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T73" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -7935,6 +8041,48 @@
       <c r="M74" s="2">
         <v>1</v>
       </c>
+      <c r="N74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O74" s="1">
+        <v>180</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T74" s="2">
+        <v>8</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V74" s="8">
+        <v>0</v>
+      </c>
+      <c r="W74" s="1">
+        <v>0</v>
+      </c>
+      <c r="X74" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y74" s="8">
+        <v>8</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -7976,6 +8124,69 @@
       <c r="M75" s="2">
         <v>3</v>
       </c>
+      <c r="N75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O75" s="1">
+        <v>220</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T75" s="2">
+        <v>8</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V75" s="1">
+        <v>100</v>
+      </c>
+      <c r="W75" s="1">
+        <v>0</v>
+      </c>
+      <c r="X75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>45</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH75" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -8017,6 +8228,48 @@
       <c r="M76" s="2">
         <v>2</v>
       </c>
+      <c r="N76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="1">
+        <v>220</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T76" s="2">
+        <v>8</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V76" s="1">
+        <v>100</v>
+      </c>
+      <c r="W76" s="1">
+        <v>0</v>
+      </c>
+      <c r="X76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>6</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -8058,6 +8311,69 @@
       <c r="M77" s="2">
         <v>3</v>
       </c>
+      <c r="N77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O77" s="1">
+        <v>220</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>0</v>
+      </c>
+      <c r="R77" s="1">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T77" s="2">
+        <v>8</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V77" s="1">
+        <v>100</v>
+      </c>
+      <c r="W77" s="1">
+        <v>0</v>
+      </c>
+      <c r="X77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC77" s="1">
+        <v>220</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH77" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -8099,6 +8415,69 @@
       <c r="M78" s="2">
         <v>3</v>
       </c>
+      <c r="N78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O78" s="1">
+        <v>220</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T78" s="2">
+        <v>8</v>
+      </c>
+      <c r="U78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V78" s="1">
+        <v>450</v>
+      </c>
+      <c r="W78" s="1">
+        <v>0</v>
+      </c>
+      <c r="X78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>220</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH78" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -8140,6 +8519,69 @@
       <c r="M79" s="2">
         <v>3</v>
       </c>
+      <c r="N79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O79" s="1">
+        <v>220</v>
+      </c>
+      <c r="P79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>0</v>
+      </c>
+      <c r="R79" s="1">
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T79" s="2">
+        <v>8</v>
+      </c>
+      <c r="U79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V79" s="1">
+        <v>450</v>
+      </c>
+      <c r="W79" s="1">
+        <v>0</v>
+      </c>
+      <c r="X79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>220</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH79" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -8181,8 +8623,50 @@
       <c r="M80" s="2">
         <v>3</v>
       </c>
+      <c r="N80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O80" s="1">
+        <v>220</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1">
+        <v>0</v>
+      </c>
+      <c r="S80" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T80" s="2">
+        <v>8</v>
+      </c>
+      <c r="U80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V80" s="1">
+        <v>450</v>
+      </c>
+      <c r="W80" s="1">
+        <v>0</v>
+      </c>
+      <c r="X80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>110</v>
       </c>
@@ -8222,8 +8706,50 @@
       <c r="M81" s="2">
         <v>3</v>
       </c>
+      <c r="N81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="1">
+        <v>220</v>
+      </c>
+      <c r="P81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T81" s="2">
+        <v>8</v>
+      </c>
+      <c r="U81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V81" s="1">
+        <v>450</v>
+      </c>
+      <c r="W81" s="1">
+        <v>0</v>
+      </c>
+      <c r="X81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>111</v>
       </c>
@@ -8262,6 +8788,69 @@
       </c>
       <c r="M82" s="2">
         <v>3</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O82" s="1">
+        <v>220</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>0</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T82" s="2">
+        <v>8</v>
+      </c>
+      <c r="U82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V82" s="1">
+        <v>450</v>
+      </c>
+      <c r="W82" s="1">
+        <v>0</v>
+      </c>
+      <c r="X82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="1">
+        <v>10000</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC82" s="1">
+        <v>220</v>
+      </c>
+      <c r="AD82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="2">
+        <v>15</v>
+      </c>
+      <c r="AH82" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -8284,26 +8873,6 @@
         <filter val="(HA) StarHome"/>
         <filter val="(HA) Stella"/>
         <filter val="(HA) Terephon"/>
-        <filter val="(IR) Allegiance"/>
-        <filter val="(IR) Altor"/>
-        <filter val="(IR) Carrack"/>
-        <filter val="(IR) Dreadnaught"/>
-        <filter val="(IR) EscortCarrier"/>
-        <filter val="(IR) Immobilizer"/>
-        <filter val="(IR) ISDI"/>
-        <filter val="(IR) ISDII"/>
-        <filter val="(IR) Katana"/>
-        <filter val="(IR) Lancer"/>
-        <filter val="(IR) MTC"/>
-        <filter val="(IR) Pellaeon"/>
-        <filter val="(IR) Strikecruiser"/>
-        <filter val="(IR) Thrawn"/>
-        <filter val="(IR) TorpedoSphere"/>
-        <filter val="(IR) VSDI"/>
-        <filter val="(IR) VSDII"/>
-        <filter val="(IR) WorldDevastator"/>
-        <filter val="(PA) Secutor"/>
-        <filter val="(PA) Venator"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/ShipStats.xlsx
+++ b/ShipStats.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -512,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,6 +710,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -889,7 +895,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -899,6 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1224,8 +1231,8 @@
   <dimension ref="A1:AO82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="19" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P94" sqref="P94"/>
+      <pane ySplit="19" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8272,7 +8279,7 @@
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B77" t="s">
@@ -8376,7 +8383,7 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B78" t="s">
@@ -8480,7 +8487,7 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B79" t="s">
@@ -8584,7 +8591,7 @@
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B80" t="s">
@@ -8667,7 +8674,7 @@
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B81" t="s">
@@ -8750,7 +8757,7 @@
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B82" t="s">

--- a/ShipStats.xlsx
+++ b/ShipStats.xlsx
@@ -712,7 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,8 +1231,8 @@
   <dimension ref="A1:AO82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="19" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+      <pane ySplit="19" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W94" sqref="W94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,7 +1402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>114</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -5216,8 +5216,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B43" t="s">
@@ -5691,7 +5691,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
@@ -5961,8 +5961,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B51" t="s">
@@ -6341,7 +6341,7 @@
       <c r="AF54"/>
       <c r="AG54"/>
     </row>
-    <row r="55" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>48</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>50</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>7</v>
       </c>
       <c r="V56" s="1">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="W56" s="1">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>100</v>
       </c>
@@ -7780,8 +7780,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B71" t="s">
@@ -7863,8 +7863,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B72" t="s">
@@ -7946,8 +7946,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B73" t="s">
@@ -8008,8 +8008,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B74" t="s">
@@ -8091,8 +8091,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B75" t="s">
@@ -8195,8 +8195,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B76" t="s">
@@ -8278,7 +8278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>107</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>112</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>108</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>109</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>110</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>111</v>
       </c>
@@ -8864,22 +8864,20 @@
   <autoFilter ref="A1:AO82" xr:uid="{0EFDF5D9-DFB6-4FE6-83FD-7EBB7A7830B6}">
     <filterColumn colId="0">
       <filters>
-        <filter val="(HA) BattleDragon"/>
-        <filter val="(HA) Beta"/>
-        <filter val="(HA) Charubah"/>
-        <filter val="(HA) Corona"/>
-        <filter val="(HA) Express"/>
-        <filter val="(HA) Flare"/>
-        <filter val="(HA) Magnetar"/>
-        <filter val="(HA) Mist"/>
-        <filter val="(HA) Neutron"/>
-        <filter val="(HA) NovaCruiser"/>
-        <filter val="(HA) Olanji"/>
-        <filter val="(HA) Pulsar"/>
-        <filter val="(HA) Ray"/>
-        <filter val="(HA) StarHome"/>
-        <filter val="(HA) Stella"/>
-        <filter val="(HA) Terephon"/>
+        <filter val="(PA) Arquitens"/>
+        <filter val="(PA) Dominator"/>
+        <filter val="(PA) Enforcer"/>
+        <filter val="(PA) Gladiator"/>
+        <filter val="(PA) ISDI"/>
+        <filter val="(PA) ISDII"/>
+        <filter val="(PA) Lucrehulk"/>
+        <filter val="(PA) Munificent"/>
+        <filter val="(PA) Praetor"/>
+        <filter val="(PA) Procursator"/>
+        <filter val="(PA) Raider"/>
+        <filter val="(PA) Secutor"/>
+        <filter val="(PA) Venator"/>
+        <filter val="(PA) Vindicator"/>
       </filters>
     </filterColumn>
   </autoFilter>
